--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-gilliam-roanoke-1/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-high-point/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D48C3-2420-6544-8C2F-E55C1748CC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A338AB-C124-B24E-8E86-FF16318EC8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="20120" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3560" windowWidth="22140" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="101">
   <si>
     <t>Category</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Expense vs Profit Growth Ratio</t>
   </si>
   <si>
+    <t>Expense Growth Alignment</t>
+  </si>
+  <si>
     <t>Best Performing (Cost Decline Rank)</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
     <t>Elasticity Classification</t>
   </si>
   <si>
-    <t>Margin Risk</t>
-  </si>
-  <si>
     <t>Performance Diagnostic Assignment</t>
   </si>
   <si>
@@ -109,238 +109,220 @@
     <t>Ranking Priority</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Cleaning Service</t>
+  </si>
+  <si>
+    <t>Professional Liability</t>
+  </si>
+  <si>
+    <t>Medical Direction and Oversight (PC)</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Utilities - Gas, Electric &amp; Water</t>
+  </si>
+  <si>
+    <t>Total Fees</t>
+  </si>
+  <si>
+    <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>Dues/Subscriptions/Memberships</t>
+  </si>
+  <si>
+    <t>Total Insurance</t>
+  </si>
+  <si>
+    <t>Staff Training</t>
+  </si>
+  <si>
+    <t>Total Training/Education</t>
+  </si>
+  <si>
+    <t>Lab Fees</t>
+  </si>
+  <si>
+    <t>Employee Health/Med. Reimbursement</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Occ Med Expense</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Vaccines</t>
+  </si>
+  <si>
+    <t>Medical Supplies</t>
+  </si>
+  <si>
+    <t>Total Supplies - Medical</t>
+  </si>
+  <si>
+    <t>Total Payroll Expense</t>
+  </si>
+  <si>
+    <t>Midlevel (PC)</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Occupational Health (HPOH)</t>
+  </si>
+  <si>
+    <t>Center Admin</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Royalties</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Advertising &amp; Marketing Fund</t>
+  </si>
+  <si>
+    <t>Medical Billing</t>
+  </si>
+  <si>
+    <t>Total Prof. Operating Fees</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Repairs &amp; Maintenance - Office</t>
+  </si>
+  <si>
+    <t>Chart Billing</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Total Marketing &amp; Advertising</t>
+  </si>
+  <si>
+    <t>Credit Card Fees</t>
+  </si>
+  <si>
+    <t>Radiologic Overreads/Storage</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Shredding Services</t>
+  </si>
+  <si>
+    <t>Meals</t>
+  </si>
+  <si>
+    <t>Total Travel Expense</t>
+  </si>
+  <si>
+    <t>Worker's Comp</t>
+  </si>
+  <si>
+    <t>Net Other Income/Expense</t>
+  </si>
+  <si>
+    <t>Bank Fees</t>
+  </si>
+  <si>
+    <t>Medical Waste Removal</t>
+  </si>
+  <si>
+    <t>Melio Credit Card Fee</t>
+  </si>
+  <si>
+    <t>MSO Service Fee (PC)</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Total Other Expense</t>
+  </si>
+  <si>
+    <t>401(K) Expenses</t>
+  </si>
+  <si>
+    <t>Patient Refunds</t>
+  </si>
+  <si>
+    <t>Debt Collection</t>
+  </si>
+  <si>
+    <t>Internet Hosting &amp; Connectivity</t>
+  </si>
+  <si>
+    <t>Licenses &amp; Permits</t>
+  </si>
+  <si>
+    <t>Business Personal Property</t>
   </si>
   <si>
     <t>Total Taxes</t>
   </si>
   <si>
-    <t>Net Other Income/Expense</t>
-  </si>
-  <si>
-    <t>Supplies/Giveaways</t>
-  </si>
-  <si>
-    <t>Physicians</t>
-  </si>
-  <si>
-    <t>Medical Waste Removal</t>
-  </si>
-  <si>
-    <t>Worker's Comp</t>
-  </si>
-  <si>
-    <t>Internet Hosting &amp; Connectivity</t>
-  </si>
-  <si>
-    <t>Melio Credit Card Fee</t>
-  </si>
-  <si>
-    <t>Shredding Services</t>
-  </si>
-  <si>
-    <t>Postage &amp; Delivery</t>
-  </si>
-  <si>
-    <t>Trade Shows/Events</t>
-  </si>
-  <si>
-    <t>Repairs &amp; Maintenance - Auto</t>
-  </si>
-  <si>
-    <t>Debt Collection</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>401(K) Expenses</t>
-  </si>
-  <si>
-    <t>Meals</t>
-  </si>
-  <si>
-    <t>Uniforms/Linens</t>
-  </si>
-  <si>
-    <t>Licenses &amp; Permits</t>
-  </si>
-  <si>
-    <t>Total Payroll Expense</t>
-  </si>
-  <si>
-    <t>Midlevel</t>
-  </si>
-  <si>
-    <t>Clinical</t>
-  </si>
-  <si>
-    <t>Center Admin</t>
-  </si>
-  <si>
-    <t>X-Ray</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>Sales/Mkt.</t>
-  </si>
-  <si>
-    <t>Vaccines</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>Total Marketing &amp; Advertising</t>
-  </si>
-  <si>
-    <t>Chart Billing</t>
-  </si>
-  <si>
-    <t>Credit Card Fees</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Medical Direction and Oversight</t>
-  </si>
-  <si>
-    <t>Bank Fees</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Interest Expense</t>
-  </si>
-  <si>
-    <t>Repairs &amp; Maintenance - Office</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Professional Liability</t>
-  </si>
-  <si>
-    <t>Scribe Services</t>
-  </si>
-  <si>
-    <t>Dues/Subscriptions/Memberships</t>
-  </si>
-  <si>
-    <t>Cleaning Service</t>
-  </si>
-  <si>
-    <t>Television</t>
-  </si>
-  <si>
-    <t>Radiologic Overreads/Storage</t>
-  </si>
-  <si>
-    <t>Utilities - Gas, Electric &amp; Water</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Total Travel Expense</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Staff Training</t>
-  </si>
-  <si>
-    <t>Total Training/Education</t>
-  </si>
-  <si>
-    <t>Lab Fees</t>
-  </si>
-  <si>
-    <t>Medical Billing</t>
-  </si>
-  <si>
-    <t>Total Other Expense</t>
-  </si>
-  <si>
-    <t>Advertising &amp; Marketing Fund</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Total Insurance</t>
-  </si>
-  <si>
-    <t>Employee Health/Med. Reimbursement</t>
-  </si>
-  <si>
-    <t>Total Prof. Operating Fees</t>
-  </si>
-  <si>
-    <t>Total Fees</t>
-  </si>
-  <si>
-    <t>Office Supplies</t>
-  </si>
-  <si>
-    <t>Total Operating Expenses</t>
-  </si>
-  <si>
-    <t>Royalties</t>
-  </si>
-  <si>
-    <t>Total Supplies - Medical</t>
-  </si>
-  <si>
-    <t>Medical Supplies</t>
+    <t>Locums</t>
   </si>
   <si>
     <t>Clamped</t>
   </si>
   <si>
+    <t>Modeled</t>
+  </si>
+  <si>
     <t>Insufficient-data</t>
   </si>
   <si>
-    <t>Modeled</t>
-  </si>
-  <si>
     <t>One-time</t>
   </si>
   <si>
-    <t>Costs Declined Despite Profit Growth</t>
-  </si>
-  <si>
-    <t>Costs Grew Slower than Profit</t>
+    <t>Costs Declined Along With Profit</t>
+  </si>
+  <si>
+    <t>Expenses Grew Even Though Profit Declined</t>
   </si>
   <si>
     <t>Below Threshold</t>
   </si>
   <si>
-    <t>Expense Outpaced Profit</t>
-  </si>
-  <si>
     <t>Fixed or unresponsive</t>
   </si>
   <si>
-    <t>Margin Risk – Investigate</t>
-  </si>
-  <si>
-    <t>Stable or Fixed – Low Concern</t>
+    <t>Neutral – Keep Watching</t>
+  </si>
+  <si>
+    <t>Margin Risk – Growth with Flat or Declining Profit</t>
+  </si>
+  <si>
+    <t>Margin Risk – Continual Growth</t>
   </si>
   <si>
     <t>Under-Leveraged</t>
-  </si>
-  <si>
-    <t>Expense Growth Alignment</t>
   </si>
 </sst>
 </file>
@@ -708,16 +690,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD66"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="U46" workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -734,17 +717,16 @@
     <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,51 +794,48 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1163.8</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>-1125</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>3094.46</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -865,84 +844,81 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>626.65200000000004</v>
+        <v>1000</v>
       </c>
       <c r="K2">
-        <v>0.4481</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1053.8418543645289</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O2">
-        <v>626.65200000000004</v>
+        <v>1000</v>
       </c>
       <c r="P2">
-        <v>379.59741842599612</v>
+        <v>594.59946380521126</v>
       </c>
       <c r="Q2">
-        <v>626.65200000000004</v>
+        <v>1000</v>
       </c>
       <c r="R2">
-        <v>9.6999999999999886</v>
+        <v>1000</v>
       </c>
       <c r="S2">
-        <v>626.65200000000004</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>3084.76</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>318.01649484536119</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-125.7704011981041</v>
+        <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD2">
+        <v>97</v>
+      </c>
+      <c r="AC2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3">
-        <v>1163.8</v>
+        <v>1649</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1649</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1649</v>
       </c>
       <c r="E3">
-        <v>-1125</v>
+        <v>1649</v>
       </c>
       <c r="F3">
-        <v>3094.46</v>
+        <v>1649</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -951,81 +927,78 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>626.65200000000004</v>
+        <v>1649</v>
       </c>
       <c r="K3">
-        <v>0.4481</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1053.8418543645289</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O3">
-        <v>626.65200000000004</v>
+        <v>1649</v>
       </c>
       <c r="P3">
-        <v>379.59741842599612</v>
+        <v>980.49451581479332</v>
       </c>
       <c r="Q3">
-        <v>626.65200000000004</v>
+        <v>1649</v>
       </c>
       <c r="R3">
-        <v>9.6999999999999886</v>
+        <v>1649</v>
       </c>
       <c r="S3">
-        <v>626.65200000000004</v>
+        <v>1649</v>
       </c>
       <c r="T3">
-        <v>3084.76</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>318.01649484536119</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-125.7704011981041</v>
+        <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD3">
+        <v>97</v>
+      </c>
+      <c r="AC3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4">
-        <v>-3328.87</v>
+        <v>3021.69</v>
       </c>
       <c r="C4">
-        <v>-4545.1400000000003</v>
+        <v>3003.13</v>
       </c>
       <c r="D4">
-        <v>-3460.13</v>
+        <v>3003.11</v>
       </c>
       <c r="E4">
-        <v>-10716.94</v>
+        <v>3003.14</v>
       </c>
       <c r="F4">
-        <v>-4673.57</v>
+        <v>3003.14</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1037,84 +1010,81 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-5344.93</v>
+        <v>3006.8420000000001</v>
       </c>
       <c r="K4">
-        <v>1.8100000000000002E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1215.905209574297</v>
+        <v>-6.8282794262322568</v>
       </c>
       <c r="N4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O4">
-        <v>-5344.93</v>
+        <v>3006.8420000000001</v>
       </c>
       <c r="P4">
-        <v>-3237.7166747535471</v>
+        <v>1787.866640946989</v>
       </c>
       <c r="Q4">
-        <v>-5344.93</v>
+        <v>3006.8420000000001</v>
       </c>
       <c r="R4">
-        <v>-5512.77</v>
+        <v>3007.7674999999999</v>
       </c>
       <c r="S4">
-        <v>-5344.93</v>
+        <v>3006.8420000000001</v>
       </c>
       <c r="T4">
-        <v>839.20000000000073</v>
+        <v>-4.6275000000000546</v>
       </c>
       <c r="U4">
-        <v>-0.1522283715808932</v>
+        <v>-1.5385165242991869E-3</v>
       </c>
       <c r="V4">
-        <v>6.0203868911808678E-2</v>
+        <v>2.3039490413961409E-4</v>
       </c>
       <c r="W4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD4">
+        <v>97</v>
+      </c>
+      <c r="AC4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5">
-        <v>1606.2</v>
+        <v>2275</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>862.56</v>
+        <v>1100</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1123,84 +1093,81 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>493.75200000000012</v>
+        <v>1205</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-1013.814507566049</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O5">
-        <v>493.75200000000012</v>
+        <v>1205</v>
       </c>
       <c r="P5">
-        <v>299.09261367181858</v>
+        <v>716.4923538852795</v>
       </c>
       <c r="Q5">
-        <v>493.75200000000012</v>
+        <v>1205</v>
       </c>
       <c r="R5">
-        <v>401.55</v>
+        <v>1231.25</v>
       </c>
       <c r="S5">
-        <v>493.75200000000012</v>
+        <v>1205</v>
       </c>
       <c r="T5">
-        <v>461.00999999999988</v>
+        <v>-131.25</v>
       </c>
       <c r="U5">
-        <v>1.148076204706761</v>
+        <v>-0.1065989847715736</v>
       </c>
       <c r="V5">
-        <v>-0.45404564609826009</v>
+        <v>1.596334032812172E-2</v>
       </c>
       <c r="W5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD5">
+        <v>97</v>
+      </c>
+      <c r="AC5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6">
-        <v>481.86</v>
+        <v>965.31</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>953.89</v>
       </c>
       <c r="D6">
-        <v>196.4</v>
+        <v>927.88</v>
       </c>
       <c r="E6">
-        <v>193.22</v>
+        <v>715.37</v>
       </c>
       <c r="F6">
-        <v>538.44000000000005</v>
+        <v>733.02</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -1209,84 +1176,81 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>281.98399999999998</v>
+        <v>859.09399999999982</v>
       </c>
       <c r="K6">
-        <v>0.82920000000000005</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-12.743006246802681</v>
+        <v>-90.319757581389013</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O6">
-        <v>281.98399999999998</v>
+        <v>859.09399999999982</v>
       </c>
       <c r="P6">
-        <v>170.81314419715591</v>
+        <v>510.81683175827402</v>
       </c>
       <c r="Q6">
-        <v>281.98399999999998</v>
+        <v>859.09399999999982</v>
       </c>
       <c r="R6">
-        <v>217.87</v>
+        <v>890.61249999999995</v>
       </c>
       <c r="S6">
-        <v>281.98399999999998</v>
+        <v>859.09399999999982</v>
       </c>
       <c r="T6">
-        <v>320.57000000000011</v>
+        <v>-157.5925</v>
       </c>
       <c r="U6">
-        <v>1.471382016799009</v>
+        <v>-0.17694844839927579</v>
       </c>
       <c r="V6">
-        <v>-0.58190788706878993</v>
+        <v>2.6498266455197751E-2</v>
       </c>
       <c r="W6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD6">
+        <v>97</v>
+      </c>
+      <c r="AC6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2023.53</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1404.47</v>
       </c>
       <c r="D7">
-        <v>130.02000000000001</v>
+        <v>1542.65</v>
       </c>
       <c r="E7">
-        <v>130.02000000000001</v>
+        <v>2452.27</v>
       </c>
       <c r="F7">
-        <v>263.94</v>
+        <v>1660.64</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -1295,81 +1259,78 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>104.79600000000001</v>
+        <v>1816.712</v>
       </c>
       <c r="K7">
-        <v>0.46200000000000002</v>
+        <v>2.41E-2</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>60.235031218222097</v>
+        <v>-62.335264249584952</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O7">
-        <v>104.79600000000001</v>
+        <v>1816.712</v>
       </c>
       <c r="P7">
-        <v>63.480673581781737</v>
+        <v>1080.215981088493</v>
       </c>
       <c r="Q7">
-        <v>104.79600000000001</v>
+        <v>1816.712</v>
       </c>
       <c r="R7">
-        <v>65.010000000000005</v>
+        <v>1855.73</v>
       </c>
       <c r="S7">
-        <v>104.79600000000001</v>
+        <v>1816.712</v>
       </c>
       <c r="T7">
-        <v>198.93</v>
+        <v>-195.08999999999989</v>
       </c>
       <c r="U7">
-        <v>3.059990770650669</v>
+        <v>-0.1051284400209082</v>
       </c>
       <c r="V7">
-        <v>-1.210177060389181</v>
+        <v>1.574312428785728E-2</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD7">
+        <v>97</v>
+      </c>
+      <c r="AC7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8">
-        <v>317.75</v>
+        <v>816.03</v>
       </c>
       <c r="C8">
-        <v>289.7</v>
+        <v>2340.64</v>
       </c>
       <c r="D8">
-        <v>313.54000000000002</v>
+        <v>1562.31</v>
       </c>
       <c r="E8">
-        <v>312.07000000000011</v>
+        <v>926.62</v>
       </c>
       <c r="F8">
-        <v>489.07000000000011</v>
+        <v>723.72</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1378,84 +1339,81 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="J8">
-        <v>344.42599999999999</v>
+        <v>1313.339602613207</v>
       </c>
       <c r="K8">
-        <v>0.65639999999999998</v>
+        <v>0.41889999999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>57.344810514279857</v>
+        <v>78.340008064068002</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O8">
-        <v>344.42599999999999</v>
+        <v>644.35125361320661</v>
       </c>
       <c r="P8">
-        <v>208.63768158210959</v>
+        <v>383.1309099006283</v>
       </c>
       <c r="Q8">
-        <v>344.42599999999999</v>
+        <v>644.35125361320661</v>
       </c>
       <c r="R8">
-        <v>308.26499999999999</v>
+        <v>1411.4</v>
       </c>
       <c r="S8">
-        <v>344.42599999999999</v>
+        <v>1273.864</v>
       </c>
       <c r="T8">
-        <v>180.80500000000009</v>
+        <v>-687.67999999999984</v>
       </c>
       <c r="U8">
-        <v>0.58652458112338435</v>
+        <v>-0.48723253507156011</v>
       </c>
       <c r="V8">
-        <v>-0.231961024274254</v>
+        <v>7.2963722806062906E-2</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD8">
+        <v>97</v>
+      </c>
+      <c r="AC8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9">
-        <v>131.97</v>
+        <v>831.55</v>
       </c>
       <c r="C9">
-        <v>131.97</v>
+        <v>1633.48</v>
       </c>
       <c r="D9">
-        <v>1127.97</v>
+        <v>232.4</v>
       </c>
       <c r="E9">
-        <v>132.06</v>
+        <v>1101.4000000000001</v>
       </c>
       <c r="F9">
-        <v>381.06</v>
+        <v>227</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1464,84 +1422,81 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="J9">
-        <v>381.00599999999997</v>
+        <v>847.04418071254258</v>
       </c>
       <c r="K9">
-        <v>2.1899999999999999E-2</v>
+        <v>0.60840000000000005</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>84.31720770385266</v>
+        <v>88.569024225948738</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O9">
-        <v>381.00599999999997</v>
+        <v>137.0136017125426</v>
       </c>
       <c r="P9">
-        <v>230.79618991851149</v>
+        <v>81.468214112298597</v>
       </c>
       <c r="Q9">
-        <v>381.00599999999997</v>
+        <v>137.0136017125426</v>
       </c>
       <c r="R9">
-        <v>380.99250000000001</v>
+        <v>949.70749999999998</v>
       </c>
       <c r="S9">
-        <v>381.00599999999997</v>
+        <v>805.16599999999994</v>
       </c>
       <c r="T9">
-        <v>6.7499999999995453E-2</v>
+        <v>-722.70749999999998</v>
       </c>
       <c r="U9">
-        <v>1.771688419063248E-4</v>
+        <v>-0.76097903828283975</v>
       </c>
       <c r="V9">
-        <v>-7.0067423191985963E-5</v>
+        <v>0.11395762723919629</v>
       </c>
       <c r="W9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD9">
+        <v>97</v>
+      </c>
+      <c r="AC9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>9410.35</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>7436.21</v>
       </c>
       <c r="D10">
-        <v>7.5</v>
+        <v>8762.01</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>8089.91</v>
       </c>
       <c r="F10">
-        <v>4.5</v>
+        <v>7684.49</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1553,84 +1508,81 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.9100445581432153</v>
+        <v>8276.5939999999991</v>
       </c>
       <c r="K10">
-        <v>0.92720000000000002</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-0.204142920372373</v>
+        <v>-830.21600334558207</v>
       </c>
       <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10">
+        <v>8276.5939999999991</v>
+      </c>
+      <c r="P10">
+        <v>4921.2583545334282</v>
+      </c>
+      <c r="Q10">
+        <v>8276.5939999999991</v>
+      </c>
+      <c r="R10">
+        <v>8424.619999999999</v>
+      </c>
+      <c r="S10">
+        <v>8276.5939999999991</v>
+      </c>
+      <c r="T10">
+        <v>-740.1299999999992</v>
+      </c>
+      <c r="U10">
+        <v>-8.785322067938961E-2</v>
+      </c>
+      <c r="V10">
+        <v>1.3156137121116931E-2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10" t="s">
         <v>96</v>
       </c>
-      <c r="O10">
-        <v>5.9100445581432153</v>
-      </c>
-      <c r="P10">
-        <v>3.580037496176141</v>
-      </c>
-      <c r="Q10">
-        <v>5.9100445581432153</v>
-      </c>
-      <c r="R10">
-        <v>6.75</v>
-      </c>
-      <c r="S10">
-        <v>6.3</v>
-      </c>
-      <c r="T10">
-        <v>-2.25</v>
-      </c>
-      <c r="U10">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="V10">
-        <v>0.1318279641011087</v>
-      </c>
-      <c r="W10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>100</v>
-      </c>
       <c r="AA10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD10">
+        <v>97</v>
+      </c>
+      <c r="AC10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11">
-        <v>125.64</v>
+        <v>2601.5</v>
       </c>
       <c r="C11">
-        <v>84.72</v>
+        <v>200</v>
       </c>
       <c r="D11">
-        <v>83.76</v>
+        <v>200</v>
       </c>
       <c r="E11">
-        <v>125.64</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>83.76</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1639,84 +1591,81 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>100.70399999999999</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="K11">
-        <v>6.4199999999999993E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-24.563487227989999</v>
+        <v>-965.13148093886116</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O11">
-        <v>100.70399999999999</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="P11">
-        <v>61.00192519160796</v>
+        <v>356.93805812226827</v>
       </c>
       <c r="Q11">
-        <v>100.70399999999999</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="R11">
-        <v>104.94</v>
+        <v>750.375</v>
       </c>
       <c r="S11">
-        <v>100.70399999999999</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="T11">
-        <v>-21.179999999999989</v>
+        <v>-750.375</v>
       </c>
       <c r="U11">
-        <v>-0.20182961692395651</v>
+        <v>-1</v>
       </c>
       <c r="V11">
-        <v>7.9820362483175575E-2</v>
+        <v>0.14975133545904659</v>
       </c>
       <c r="W11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD11">
+        <v>97</v>
+      </c>
+      <c r="AC11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2601.5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D12">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="E12">
-        <v>17.850000000000001</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1725,425 +1674,410 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>32.770000000000003</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-965.13148093886116</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O12">
-        <v>32.770000000000003</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="P12">
-        <v>19.850582782501121</v>
+        <v>356.93805812226827</v>
       </c>
       <c r="Q12">
-        <v>32.770000000000003</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="R12">
-        <v>40.962499999999999</v>
+        <v>750.375</v>
       </c>
       <c r="S12">
-        <v>32.770000000000003</v>
+        <v>600.29999999999995</v>
       </c>
       <c r="T12">
-        <v>-40.962499999999999</v>
+        <v>-750.375</v>
       </c>
       <c r="U12">
         <v>-1</v>
       </c>
       <c r="V12">
-        <v>0.39548389230332609</v>
+        <v>0.14975133545904659</v>
       </c>
       <c r="W12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD12">
+        <v>97</v>
+      </c>
+      <c r="AC12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>582.52</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2337.48</v>
       </c>
       <c r="D13">
-        <v>175</v>
+        <v>1827.51</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1604.23</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>823.39</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1487.188210555727</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.64639999999999997</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>218.82922381846811</v>
       </c>
       <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13">
+        <v>604.7802655557274</v>
+      </c>
+      <c r="P13">
+        <v>359.60202161940879</v>
+      </c>
+      <c r="Q13">
+        <v>604.7802655557274</v>
+      </c>
+      <c r="R13">
+        <v>1587.9349999999999</v>
+      </c>
+      <c r="S13">
+        <v>1435.0260000000001</v>
+      </c>
+      <c r="T13">
+        <v>-764.54499999999996</v>
+      </c>
+      <c r="U13">
+        <v>-0.48147121891009392</v>
+      </c>
+      <c r="V13">
+        <v>7.2100958016881558E-2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA13" t="s">
         <v>97</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>43.75</v>
-      </c>
-      <c r="S13">
-        <v>35</v>
-      </c>
-      <c r="T13">
-        <v>-43.75</v>
-      </c>
-      <c r="U13">
-        <v>-1</v>
-      </c>
-      <c r="V13">
-        <v>0.39548389230332609</v>
-      </c>
-      <c r="W13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD13">
+      <c r="AC13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7572.32</v>
       </c>
       <c r="C14">
-        <v>182.68</v>
+        <v>5602.3499999999995</v>
       </c>
       <c r="D14">
-        <v>408.6</v>
+        <v>6934.7599999999993</v>
       </c>
       <c r="E14">
-        <v>128.1</v>
+        <v>6264.1399999999994</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5781.8499999999995</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.6999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>107.3256312044616</v>
+        <v>6431.0839999999989</v>
       </c>
       <c r="K14">
-        <v>0.45319999999999999</v>
+        <v>2.92E-2</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.7030506926241458</v>
+        <v>-849.06255213638269</v>
       </c>
       <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14">
+        <v>6431.0839999999989</v>
+      </c>
+      <c r="P14">
+        <v>3823.9190980862718</v>
+      </c>
+      <c r="Q14">
+        <v>6431.0839999999989</v>
+      </c>
+      <c r="R14">
+        <v>6593.392499999999</v>
+      </c>
+      <c r="S14">
+        <v>6431.0839999999989</v>
+      </c>
+      <c r="T14">
+        <v>-811.54249999999956</v>
+      </c>
+      <c r="U14">
+        <v>-0.1230842089258299</v>
+      </c>
+      <c r="V14">
+        <v>1.8432024660563331E-2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z14" t="s">
         <v>96</v>
       </c>
-      <c r="O14">
-        <v>-7.8874317955383484</v>
-      </c>
-      <c r="P14">
-        <v>-4.7778491851896678</v>
-      </c>
-      <c r="Q14">
-        <v>-7.8874317955383484</v>
-      </c>
-      <c r="R14">
-        <v>179.845</v>
-      </c>
-      <c r="S14">
-        <v>143.876</v>
-      </c>
-      <c r="T14">
-        <v>-179.845</v>
-      </c>
-      <c r="U14">
-        <v>-1</v>
-      </c>
-      <c r="V14">
-        <v>0.39548389230332609</v>
-      </c>
-      <c r="W14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>100</v>
-      </c>
       <c r="AA14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD14">
+        <v>97</v>
+      </c>
+      <c r="AC14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15">
-        <v>283.97000000000003</v>
+        <v>14612.64</v>
       </c>
       <c r="C15">
-        <v>340.74</v>
+        <v>20127</v>
       </c>
       <c r="D15">
-        <v>68.430000000000007</v>
+        <v>14612.64</v>
       </c>
       <c r="E15">
-        <v>259.38</v>
+        <v>14832.02</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>14832.02</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.1999999999999999E-3</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J15">
-        <v>164.00868341076711</v>
+        <v>15922.69268694548</v>
       </c>
       <c r="K15">
-        <v>0.30909999999999999</v>
+        <v>0.30359999999999998</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-82.074333383290821</v>
+        <v>930.15876222691986</v>
       </c>
       <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15">
+        <v>13903.41497094548</v>
+      </c>
+      <c r="P15">
+        <v>8266.9630867855285</v>
+      </c>
+      <c r="Q15">
+        <v>13903.41497094548</v>
+      </c>
+      <c r="R15">
+        <v>16046.075000000001</v>
+      </c>
+      <c r="S15">
+        <v>15803.263999999999</v>
+      </c>
+      <c r="T15">
+        <v>-1214.0550000000001</v>
+      </c>
+      <c r="U15">
+        <v>-7.5660558734768485E-2</v>
+      </c>
+      <c r="V15">
+        <v>1.1330269712109219E-2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z15" t="s">
         <v>96</v>
       </c>
-      <c r="O15">
-        <v>82.681815410767115</v>
-      </c>
-      <c r="P15">
-        <v>50.08490147753767</v>
-      </c>
-      <c r="Q15">
-        <v>82.681815410767115</v>
-      </c>
-      <c r="R15">
-        <v>238.13</v>
-      </c>
-      <c r="S15">
-        <v>190.50399999999999</v>
-      </c>
-      <c r="T15">
-        <v>-238.13</v>
-      </c>
-      <c r="U15">
-        <v>-1</v>
-      </c>
-      <c r="V15">
-        <v>0.39548389230332609</v>
-      </c>
-      <c r="W15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>100</v>
-      </c>
       <c r="AA15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD15">
+        <v>97</v>
+      </c>
+      <c r="AC15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16">
-        <v>147.65</v>
+        <v>8362.8700000000008</v>
       </c>
       <c r="C16">
-        <v>182.19</v>
+        <v>450.68</v>
       </c>
       <c r="D16">
-        <v>324.74</v>
+        <v>4200.68</v>
       </c>
       <c r="E16">
-        <v>311.83999999999997</v>
+        <v>2468.12</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2420.56</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.1000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>168.28795730746191</v>
+        <v>3580.5820000000008</v>
       </c>
       <c r="K16">
-        <v>0.33850000000000002</v>
+        <v>0.15160000000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-90.989975063141983</v>
+        <v>-2817.5833189184409</v>
       </c>
       <c r="N16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16">
+        <v>3580.5820000000008</v>
+      </c>
+      <c r="P16">
+        <v>2129.0121373105908</v>
+      </c>
+      <c r="Q16">
+        <v>3580.5820000000008</v>
+      </c>
+      <c r="R16">
+        <v>3870.587500000001</v>
+      </c>
+      <c r="S16">
+        <v>3580.5820000000008</v>
+      </c>
+      <c r="T16">
+        <v>-1450.0275000000011</v>
+      </c>
+      <c r="U16">
+        <v>-0.37462723682128368</v>
+      </c>
+      <c r="V16">
+        <v>5.610092901331977E-2</v>
+      </c>
+      <c r="W16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z16" t="s">
         <v>96</v>
       </c>
-      <c r="O16">
-        <v>93.73832830746187</v>
-      </c>
-      <c r="P16">
-        <v>56.782436556623132</v>
-      </c>
-      <c r="Q16">
-        <v>93.73832830746187</v>
-      </c>
-      <c r="R16">
-        <v>241.60499999999999</v>
-      </c>
-      <c r="S16">
-        <v>193.28399999999999</v>
-      </c>
-      <c r="T16">
-        <v>-241.60499999999999</v>
-      </c>
-      <c r="U16">
-        <v>-1</v>
-      </c>
-      <c r="V16">
-        <v>0.39548389230332609</v>
-      </c>
-      <c r="W16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>100</v>
-      </c>
       <c r="AA16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD16">
+        <v>97</v>
+      </c>
+      <c r="AC16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="B17">
-        <v>1138.46</v>
+        <v>36184.050000000003</v>
       </c>
       <c r="C17">
-        <v>38.46</v>
+        <v>35497.089999999997</v>
       </c>
       <c r="D17">
-        <v>38.46</v>
+        <v>34366.9</v>
       </c>
       <c r="E17">
-        <v>38.46</v>
+        <v>30653.21</v>
       </c>
       <c r="F17">
-        <v>57.69</v>
+        <v>32545.88</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -2155,81 +2089,78 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>262.30599999999998</v>
+        <v>33849.425999999999</v>
       </c>
       <c r="K17">
-        <v>4.9000000000000002E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-347.87434646533711</v>
+        <v>-1441.870677417453</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O17">
-        <v>262.30599999999998</v>
+        <v>33849.425999999999</v>
       </c>
       <c r="P17">
-        <v>158.8931024518383</v>
+        <v>20126.85054971417</v>
       </c>
       <c r="Q17">
-        <v>262.30599999999998</v>
+        <v>33849.425999999999</v>
       </c>
       <c r="R17">
-        <v>313.45999999999998</v>
+        <v>34175.3125</v>
       </c>
       <c r="S17">
-        <v>262.30599999999998</v>
+        <v>33849.425999999999</v>
       </c>
       <c r="T17">
-        <v>-255.77</v>
+        <v>-1629.432499999999</v>
       </c>
       <c r="U17">
-        <v>-0.81595737893192122</v>
+        <v>-4.7678642294785127E-2</v>
       </c>
       <c r="V17">
-        <v>0.32269800017361622</v>
+        <v>7.1399403565182576E-3</v>
       </c>
       <c r="W17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD17">
+        <v>97</v>
+      </c>
+      <c r="AC17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18">
-        <v>520.07000000000005</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>431.02</v>
+        <v>1446.88</v>
       </c>
       <c r="D18">
-        <v>310.32</v>
+        <v>2580.5700000000002</v>
       </c>
       <c r="E18">
-        <v>216.24</v>
+        <v>7883.53</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>846.43</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -2238,87 +2169,84 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.9E-3</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="J18">
-        <v>254.35249639156871</v>
+        <v>2712.8241718372878</v>
       </c>
       <c r="K18">
-        <v>0.40050000000000002</v>
+        <v>0.33210000000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-127.014822106826</v>
+        <v>863.64785797600473</v>
       </c>
       <c r="N18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18">
+        <v>-16.48412316271197</v>
+      </c>
+      <c r="P18">
+        <v>-9.8014507938475983</v>
+      </c>
+      <c r="Q18">
+        <v>-16.48412316271197</v>
+      </c>
+      <c r="R18">
+        <v>2977.7449999999999</v>
+      </c>
+      <c r="S18">
+        <v>2551.482</v>
+      </c>
+      <c r="T18">
+        <v>-2131.3150000000001</v>
+      </c>
+      <c r="U18">
+        <v>-0.71574799050959703</v>
+      </c>
+      <c r="V18">
+        <v>0.1071842174309412</v>
+      </c>
+      <c r="W18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z18" t="s">
         <v>96</v>
       </c>
-      <c r="O18">
-        <v>125.5849553915687</v>
-      </c>
-      <c r="P18">
-        <v>76.073681819867105</v>
-      </c>
-      <c r="Q18">
-        <v>125.5849553915687</v>
-      </c>
-      <c r="R18">
-        <v>369.41250000000002</v>
-      </c>
-      <c r="S18">
-        <v>295.52999999999997</v>
-      </c>
-      <c r="T18">
-        <v>-369.41250000000002</v>
-      </c>
-      <c r="U18">
-        <v>-1</v>
-      </c>
-      <c r="V18">
-        <v>0.39548389230332609</v>
-      </c>
-      <c r="W18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>100</v>
-      </c>
       <c r="AA18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD18">
+        <v>97</v>
+      </c>
+      <c r="AC18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>28381.119999999999</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>4645.82</v>
       </c>
       <c r="D19">
-        <v>608.22</v>
+        <v>7182.37</v>
       </c>
       <c r="E19">
-        <v>930.91</v>
+        <v>5083.28</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5458.57</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -2327,167 +2255,161 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>307.82600000000002</v>
+        <v>10150.232</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>8.43E-2</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-8931.7748296067566</v>
       </c>
       <c r="N19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O19">
-        <v>307.82600000000002</v>
+        <v>10150.232</v>
       </c>
       <c r="P19">
-        <v>186.46705815093651</v>
+        <v>6035.3225046984971</v>
       </c>
       <c r="Q19">
-        <v>307.82600000000002</v>
+        <v>10150.232</v>
       </c>
       <c r="R19">
-        <v>384.78250000000003</v>
+        <v>11323.147499999999</v>
       </c>
       <c r="S19">
-        <v>307.82600000000002</v>
+        <v>10150.232</v>
       </c>
       <c r="T19">
-        <v>-384.78250000000003</v>
+        <v>-5864.5775000000012</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>-0.51792820856568378</v>
       </c>
       <c r="V19">
-        <v>0.39548389230332609</v>
+        <v>7.7560440904622802E-2</v>
       </c>
       <c r="W19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD19">
+        <v>97</v>
+      </c>
+      <c r="AC19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20">
-        <v>17605.45</v>
+        <v>28963.64</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>8430.18</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>11590.45</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>14571.04</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>7128.39</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14136.74</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-7849.2977478122884</v>
       </c>
       <c r="N20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20">
+        <v>14136.74</v>
+      </c>
+      <c r="P20">
+        <v>8405.6980239536824</v>
+      </c>
+      <c r="Q20">
+        <v>14136.74</v>
+      </c>
+      <c r="R20">
+        <v>15888.827499999999</v>
+      </c>
+      <c r="S20">
+        <v>14136.74</v>
+      </c>
+      <c r="T20">
+        <v>-8760.4375</v>
+      </c>
+      <c r="U20">
+        <v>-0.55135833654182476</v>
+      </c>
+      <c r="V20">
+        <v>8.2566647213616742E-2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" t="s">
         <v>97</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>4401.3625000000002</v>
-      </c>
-      <c r="S20">
-        <v>3521.09</v>
-      </c>
-      <c r="T20">
-        <v>-4401.3625000000002</v>
-      </c>
-      <c r="U20">
-        <v>-1</v>
-      </c>
-      <c r="V20">
-        <v>0.39548389230332609</v>
-      </c>
-      <c r="W20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD20">
+      <c r="AC20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="B21">
-        <v>125397.07</v>
+        <v>82282.25</v>
       </c>
       <c r="C21">
-        <v>112855.67</v>
+        <v>78744.61</v>
       </c>
       <c r="D21">
-        <v>121272.39</v>
+        <v>78392.259999999995</v>
       </c>
       <c r="E21">
-        <v>120503.21</v>
+        <v>74532.03</v>
       </c>
       <c r="F21">
-        <v>184965.92</v>
+        <v>111342.99</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2499,81 +2421,78 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>132998.85200000001</v>
+        <v>85058.828000000009</v>
       </c>
       <c r="K21">
-        <v>0.67410000000000003</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20088.831165078151</v>
+        <v>7794.1608683763043</v>
       </c>
       <c r="N21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21">
+        <v>85058.828000000009</v>
+      </c>
+      <c r="P21">
+        <v>50575.933520699691</v>
+      </c>
+      <c r="Q21">
+        <v>85058.828000000009</v>
+      </c>
+      <c r="R21">
+        <v>78487.787500000006</v>
+      </c>
+      <c r="S21">
+        <v>85058.828000000009</v>
+      </c>
+      <c r="T21">
+        <v>32855.202499999999</v>
+      </c>
+      <c r="U21">
+        <v>0.41860273485222138</v>
+      </c>
+      <c r="V21">
+        <v>-6.2686318570929364E-2</v>
+      </c>
+      <c r="W21" t="s">
         <v>94</v>
       </c>
-      <c r="O21">
-        <v>132998.85200000001</v>
-      </c>
-      <c r="P21">
-        <v>80564.684821593386</v>
-      </c>
-      <c r="Q21">
-        <v>132998.85200000001</v>
-      </c>
-      <c r="R21">
-        <v>120007.08500000001</v>
-      </c>
-      <c r="S21">
-        <v>132998.85200000001</v>
-      </c>
-      <c r="T21">
-        <v>64958.835000000006</v>
-      </c>
-      <c r="U21">
-        <v>0.54129166623787262</v>
-      </c>
-      <c r="V21">
-        <v>-0.21407213503510669</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="Y21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA21" t="s">
         <v>98</v>
       </c>
-      <c r="Y21" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD21">
+      <c r="AC21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="B22">
-        <v>47172.63</v>
+        <v>29290.35</v>
       </c>
       <c r="C22">
-        <v>42461.07</v>
+        <v>29269.3</v>
       </c>
       <c r="D22">
-        <v>48025.67</v>
+        <v>28557.71</v>
       </c>
       <c r="E22">
-        <v>48556.76</v>
+        <v>28483.06</v>
       </c>
       <c r="F22">
-        <v>68327.210000000006</v>
+        <v>42283.27</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2585,81 +2504,78 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>50908.668000000012</v>
+        <v>31576.73799999999</v>
       </c>
       <c r="K22">
-        <v>0.7147</v>
+        <v>0.6462</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6218.3061853621484</v>
+        <v>3830.9017064050349</v>
       </c>
       <c r="N22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22">
+        <v>31576.73799999999</v>
+      </c>
+      <c r="P22">
+        <v>18775.511483517639</v>
+      </c>
+      <c r="Q22">
+        <v>31576.73799999999</v>
+      </c>
+      <c r="R22">
+        <v>28900.105</v>
+      </c>
+      <c r="S22">
+        <v>31576.73799999999</v>
+      </c>
+      <c r="T22">
+        <v>13383.165000000001</v>
+      </c>
+      <c r="U22">
+        <v>0.46308361163393708</v>
+      </c>
+      <c r="V22">
+        <v>-6.9347389271380594E-2</v>
+      </c>
+      <c r="W22" t="s">
         <v>94</v>
       </c>
-      <c r="O22">
-        <v>50908.668000000012</v>
-      </c>
-      <c r="P22">
-        <v>30838.166874606832</v>
-      </c>
-      <c r="Q22">
-        <v>50908.668000000012</v>
-      </c>
-      <c r="R22">
-        <v>46554.032500000001</v>
-      </c>
-      <c r="S22">
-        <v>50908.668000000012</v>
-      </c>
-      <c r="T22">
-        <v>21773.177500000009</v>
-      </c>
-      <c r="U22">
-        <v>0.46769691755488652</v>
-      </c>
-      <c r="V22">
-        <v>-0.1849665973728743</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="Y22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA22" t="s">
         <v>98</v>
       </c>
-      <c r="Y22" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD22">
+      <c r="AC22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23">
-        <v>24228.14</v>
+        <v>13909</v>
       </c>
       <c r="C23">
-        <v>25129.599999999999</v>
+        <v>12754.26</v>
       </c>
       <c r="D23">
-        <v>22343.439999999999</v>
+        <v>11935.16</v>
       </c>
       <c r="E23">
-        <v>24969.79</v>
+        <v>12667.35</v>
       </c>
       <c r="F23">
-        <v>44099.86</v>
+        <v>19998.23</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2671,81 +2587,78 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>28154.166000000001</v>
+        <v>14252.8</v>
       </c>
       <c r="K23">
-        <v>0.53659999999999997</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7256.5882203088186</v>
+        <v>1829.7792136220271</v>
       </c>
       <c r="N23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23">
+        <v>14252.8</v>
+      </c>
+      <c r="P23">
+        <v>8474.7072377229142</v>
+      </c>
+      <c r="Q23">
+        <v>14252.8</v>
+      </c>
+      <c r="R23">
+        <v>12816.442499999999</v>
+      </c>
+      <c r="S23">
+        <v>14252.8</v>
+      </c>
+      <c r="T23">
+        <v>7181.7875000000004</v>
+      </c>
+      <c r="U23">
+        <v>0.56035733004693</v>
+      </c>
+      <c r="V23">
+        <v>-8.3914258508793541E-2</v>
+      </c>
+      <c r="W23" t="s">
         <v>94</v>
       </c>
-      <c r="O23">
-        <v>28154.166000000001</v>
-      </c>
-      <c r="P23">
-        <v>17054.519464610268</v>
-      </c>
-      <c r="Q23">
-        <v>28154.166000000001</v>
-      </c>
-      <c r="R23">
-        <v>24167.7425</v>
-      </c>
-      <c r="S23">
-        <v>28154.166000000001</v>
-      </c>
-      <c r="T23">
-        <v>19932.1175</v>
-      </c>
-      <c r="U23">
-        <v>0.82474056068745349</v>
-      </c>
-      <c r="V23">
-        <v>-0.32617160708110171</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="Y23" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA23" t="s">
         <v>98</v>
       </c>
-      <c r="Y23" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD23">
+      <c r="AC23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24">
-        <v>7142.09</v>
+        <v>13553.66</v>
       </c>
       <c r="C24">
-        <v>6357.64</v>
+        <v>14436.83</v>
       </c>
       <c r="D24">
-        <v>7024.89</v>
+        <v>12594.99</v>
       </c>
       <c r="E24">
-        <v>6378.25</v>
+        <v>11632.55</v>
       </c>
       <c r="F24">
-        <v>12858.85</v>
+        <v>18234.900000000001</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2757,81 +2670,78 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7952.3440000000001</v>
+        <v>14090.585999999999</v>
       </c>
       <c r="K24">
-        <v>0.5887</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2103.5325948250161</v>
+        <v>1464.4797866450431</v>
       </c>
       <c r="N24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24">
+        <v>14090.585999999999</v>
+      </c>
+      <c r="P24">
+        <v>8378.254880301216</v>
+      </c>
+      <c r="Q24">
+        <v>14090.585999999999</v>
+      </c>
+      <c r="R24">
+        <v>13054.5075</v>
+      </c>
+      <c r="S24">
+        <v>14090.585999999999</v>
+      </c>
+      <c r="T24">
+        <v>5180.3925000000017</v>
+      </c>
+      <c r="U24">
+        <v>0.39682787726767949</v>
+      </c>
+      <c r="V24">
+        <v>-5.9425504568213668E-2</v>
+      </c>
+      <c r="W24" t="s">
         <v>94</v>
       </c>
-      <c r="O24">
-        <v>7952.3440000000001</v>
-      </c>
-      <c r="P24">
-        <v>4817.1700606324712</v>
-      </c>
-      <c r="Q24">
-        <v>7952.3440000000001</v>
-      </c>
-      <c r="R24">
-        <v>6725.7174999999997</v>
-      </c>
-      <c r="S24">
-        <v>7952.3440000000001</v>
-      </c>
-      <c r="T24">
-        <v>6133.1325000000006</v>
-      </c>
-      <c r="U24">
-        <v>0.91189267167406318</v>
-      </c>
-      <c r="V24">
-        <v>-0.36063886315653748</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="Y24" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA24" t="s">
         <v>98</v>
       </c>
-      <c r="Y24" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD24">
+      <c r="AC24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25">
-        <v>9057.91</v>
+        <v>5486.17</v>
       </c>
       <c r="C25">
-        <v>8529.44</v>
+        <v>4993.34</v>
       </c>
       <c r="D25">
-        <v>8943.7000000000007</v>
+        <v>5359.6</v>
       </c>
       <c r="E25">
-        <v>8512.1</v>
+        <v>5267.36</v>
       </c>
       <c r="F25">
-        <v>14026.75</v>
+        <v>8350.92</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2843,81 +2753,78 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9813.98</v>
+        <v>5891.4780000000001</v>
       </c>
       <c r="K25">
-        <v>0.57950000000000002</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1832.5284292669489</v>
+        <v>759.03357867714476</v>
       </c>
       <c r="N25" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25">
+        <v>5891.4780000000001</v>
+      </c>
+      <c r="P25">
+        <v>3503.069659820198</v>
+      </c>
+      <c r="Q25">
+        <v>5891.4780000000001</v>
+      </c>
+      <c r="R25">
+        <v>5276.6175000000003</v>
+      </c>
+      <c r="S25">
+        <v>5891.4780000000001</v>
+      </c>
+      <c r="T25">
+        <v>3074.3024999999998</v>
+      </c>
+      <c r="U25">
+        <v>0.58262750711037892</v>
+      </c>
+      <c r="V25">
+        <v>-8.7249247264954449E-2</v>
+      </c>
+      <c r="W25" t="s">
         <v>94</v>
       </c>
-      <c r="O25">
-        <v>9813.98</v>
-      </c>
-      <c r="P25">
-        <v>5944.8648891001021</v>
-      </c>
-      <c r="Q25">
-        <v>9813.98</v>
-      </c>
-      <c r="R25">
-        <v>8760.7875000000004</v>
-      </c>
-      <c r="S25">
-        <v>9813.98</v>
-      </c>
-      <c r="T25">
-        <v>5265.9624999999996</v>
-      </c>
-      <c r="U25">
-        <v>0.60108323595338886</v>
-      </c>
-      <c r="V25">
-        <v>-0.2377187377531248</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="Y25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA25" t="s">
         <v>98</v>
       </c>
-      <c r="Y25" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD25">
+      <c r="AC25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="B26">
-        <v>9634.02</v>
+        <v>9553.36</v>
       </c>
       <c r="C26">
-        <v>8362.7000000000007</v>
+        <v>8677.93</v>
       </c>
       <c r="D26">
-        <v>8587.68</v>
+        <v>9227.75</v>
       </c>
       <c r="E26">
-        <v>8523.7999999999993</v>
+        <v>9130.9500000000007</v>
       </c>
       <c r="F26">
-        <v>13050.84</v>
+        <v>11925.55</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2929,81 +2836,78 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>9631.8079999999991</v>
+        <v>9703.108000000002</v>
       </c>
       <c r="K26">
-        <v>0.68989999999999996</v>
+        <v>0.81610000000000005</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1251.4957694145801</v>
+        <v>571.64495521446406</v>
       </c>
       <c r="N26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26">
+        <v>9703.108000000002</v>
+      </c>
+      <c r="P26">
+        <v>5769.4628140440564</v>
+      </c>
+      <c r="Q26">
+        <v>9703.108000000002</v>
+      </c>
+      <c r="R26">
+        <v>9147.4975000000013</v>
+      </c>
+      <c r="S26">
+        <v>9703.108000000002</v>
+      </c>
+      <c r="T26">
+        <v>2778.052499999998</v>
+      </c>
+      <c r="U26">
+        <v>0.30369535493177208</v>
+      </c>
+      <c r="V26">
+        <v>-4.547878497374204E-2</v>
+      </c>
+      <c r="W26" t="s">
         <v>94</v>
       </c>
-      <c r="O26">
-        <v>9631.8079999999991</v>
-      </c>
-      <c r="P26">
-        <v>5834.5133368677616</v>
-      </c>
-      <c r="Q26">
-        <v>9631.8079999999991</v>
-      </c>
-      <c r="R26">
-        <v>8777.0499999999993</v>
-      </c>
-      <c r="S26">
-        <v>9631.8079999999991</v>
-      </c>
-      <c r="T26">
-        <v>4273.7900000000009</v>
-      </c>
-      <c r="U26">
-        <v>0.4869278402196639</v>
-      </c>
-      <c r="V26">
-        <v>-0.19257211752092471</v>
-      </c>
-      <c r="W26" t="s">
+      <c r="Y26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA26" t="s">
         <v>98</v>
       </c>
-      <c r="Y26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD26">
+      <c r="AC26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27">
-        <v>18991.55</v>
+        <v>6402.34</v>
       </c>
       <c r="C27">
-        <v>14380.11</v>
+        <v>6170.68</v>
       </c>
       <c r="D27">
-        <v>18522.29</v>
+        <v>5700.57</v>
       </c>
       <c r="E27">
-        <v>15689.29</v>
+        <v>5353.1900000000014</v>
       </c>
       <c r="F27">
-        <v>20350.580000000002</v>
+        <v>7959.6900000000014</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -3015,81 +2919,78 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>17586.763999999999</v>
+        <v>6317.2940000000008</v>
       </c>
       <c r="K27">
-        <v>0.56820000000000004</v>
+        <v>0.7127</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>306.65952663774812</v>
+        <v>432.96948018167768</v>
       </c>
       <c r="N27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27">
+        <v>6317.2940000000008</v>
+      </c>
+      <c r="P27">
+        <v>3756.259625099879</v>
+      </c>
+      <c r="Q27">
+        <v>6317.2940000000008</v>
+      </c>
+      <c r="R27">
+        <v>5906.6950000000006</v>
+      </c>
+      <c r="S27">
+        <v>6317.2940000000008</v>
+      </c>
+      <c r="T27">
+        <v>2052.9950000000008</v>
+      </c>
+      <c r="U27">
+        <v>0.34757084968836222</v>
+      </c>
+      <c r="V27">
+        <v>-5.2049198907467807E-2</v>
+      </c>
+      <c r="W27" t="s">
         <v>94</v>
       </c>
-      <c r="O27">
-        <v>17586.763999999999</v>
-      </c>
-      <c r="P27">
-        <v>10653.265628877351</v>
-      </c>
-      <c r="Q27">
-        <v>17586.763999999999</v>
-      </c>
-      <c r="R27">
-        <v>16895.810000000001</v>
-      </c>
-      <c r="S27">
-        <v>17586.763999999999</v>
-      </c>
-      <c r="T27">
-        <v>3454.77</v>
-      </c>
-      <c r="U27">
-        <v>0.20447495562509291</v>
-      </c>
-      <c r="V27">
-        <v>-8.0866551329161609E-2</v>
-      </c>
-      <c r="W27" t="s">
+      <c r="Y27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA27" t="s">
         <v>98</v>
       </c>
-      <c r="Y27" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD27">
+      <c r="AC27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28">
-        <v>5647.62</v>
+        <v>11640.78</v>
       </c>
       <c r="C28">
-        <v>5647.62</v>
+        <v>9295.3700000000008</v>
       </c>
       <c r="D28">
-        <v>5647.62</v>
+        <v>9544.57</v>
       </c>
       <c r="E28">
-        <v>5647.62</v>
+        <v>9296.2800000000007</v>
       </c>
       <c r="F28">
-        <v>8339.93</v>
+        <v>11750.2</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -3101,84 +3002,81 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>6186.0820000000003</v>
+        <v>10305.44</v>
       </c>
       <c r="K28">
-        <v>0.54500000000000004</v>
+        <v>0.81489999999999996</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>979.98142752579952</v>
+        <v>-194.96759166532499</v>
       </c>
       <c r="N28" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28">
+        <v>10305.44</v>
+      </c>
+      <c r="P28">
+        <v>6127.6090982767764</v>
+      </c>
+      <c r="Q28">
+        <v>10305.44</v>
+      </c>
+      <c r="R28">
+        <v>9944.25</v>
+      </c>
+      <c r="S28">
+        <v>10305.44</v>
+      </c>
+      <c r="T28">
+        <v>1805.950000000001</v>
+      </c>
+      <c r="U28">
+        <v>0.18160746159841121</v>
+      </c>
+      <c r="V28">
+        <v>-2.7195959903689611E-2</v>
+      </c>
+      <c r="W28" t="s">
         <v>94</v>
       </c>
-      <c r="O28">
-        <v>6186.0820000000003</v>
-      </c>
-      <c r="P28">
-        <v>3747.248484599942</v>
-      </c>
-      <c r="Q28">
-        <v>6186.0820000000003</v>
-      </c>
-      <c r="R28">
-        <v>5647.62</v>
-      </c>
-      <c r="S28">
-        <v>6186.0820000000003</v>
-      </c>
-      <c r="T28">
-        <v>2692.31</v>
-      </c>
-      <c r="U28">
-        <v>0.47671585552852358</v>
-      </c>
-      <c r="V28">
-        <v>-0.1885334420671306</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="Y28" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA28" t="s">
         <v>98</v>
       </c>
-      <c r="Y28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD28">
+      <c r="AC28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1947.58</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="D29">
-        <v>1984.08</v>
+        <v>1791.44</v>
       </c>
       <c r="E29">
-        <v>1867.66</v>
+        <v>1925</v>
       </c>
       <c r="F29">
-        <v>2554.38</v>
+        <v>2481.9</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3187,81 +3085,78 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1281.2239999999999</v>
+        <v>2039.5840000000001</v>
       </c>
       <c r="K29">
-        <v>0.29470000000000002</v>
+        <v>0.4194</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>414.25608649473543</v>
+        <v>198.40655490348809</v>
       </c>
       <c r="N29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29">
+        <v>2039.5840000000001</v>
+      </c>
+      <c r="P29">
+        <v>1212.735552785688</v>
+      </c>
+      <c r="Q29">
+        <v>2039.5840000000001</v>
+      </c>
+      <c r="R29">
+        <v>1929.0050000000001</v>
+      </c>
+      <c r="S29">
+        <v>2039.5840000000001</v>
+      </c>
+      <c r="T29">
+        <v>552.89499999999998</v>
+      </c>
+      <c r="U29">
+        <v>0.2866218594560408</v>
+      </c>
+      <c r="V29">
+        <v>-4.2922006225297293E-2</v>
+      </c>
+      <c r="W29" t="s">
         <v>94</v>
       </c>
-      <c r="O29">
-        <v>1281.2239999999999</v>
-      </c>
-      <c r="P29">
-        <v>776.10750915249355</v>
-      </c>
-      <c r="Q29">
-        <v>1281.2239999999999</v>
-      </c>
-      <c r="R29">
-        <v>962.93499999999995</v>
-      </c>
-      <c r="S29">
-        <v>1281.2239999999999</v>
-      </c>
-      <c r="T29">
-        <v>1591.4449999999999</v>
-      </c>
-      <c r="U29">
-        <v>1.6527024150124361</v>
-      </c>
-      <c r="V29">
-        <v>-0.65361718390822532</v>
-      </c>
-      <c r="W29" t="s">
+      <c r="Y29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA29" t="s">
         <v>98</v>
       </c>
-      <c r="Y29" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD29">
+      <c r="AC29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="B30">
-        <v>1902.79</v>
+        <v>1940.14</v>
       </c>
       <c r="C30">
-        <v>1949.03</v>
+        <v>1549.23</v>
       </c>
       <c r="D30">
-        <v>1942.24</v>
+        <v>1590.76</v>
       </c>
       <c r="E30">
-        <v>1993.92</v>
+        <v>1549.39</v>
       </c>
       <c r="F30">
-        <v>3315.77</v>
+        <v>1958.36</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3273,81 +3168,81 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2220.75</v>
+        <v>1717.576</v>
       </c>
       <c r="K30">
-        <v>0.53959999999999997</v>
+        <v>0.81489999999999996</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>500.35636444925098</v>
+        <v>-32.498542531567857</v>
       </c>
       <c r="N30" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30">
+        <v>1717.576</v>
+      </c>
+      <c r="P30">
+        <v>1021.2697686447</v>
+      </c>
+      <c r="Q30">
+        <v>1717.576</v>
+      </c>
+      <c r="R30">
+        <v>1657.38</v>
+      </c>
+      <c r="S30">
+        <v>1717.576</v>
+      </c>
+      <c r="T30">
+        <v>300.97999999999979</v>
+      </c>
+      <c r="U30">
+        <v>0.18159987450071791</v>
+      </c>
+      <c r="V30">
+        <v>-2.7194823725677771E-2</v>
+      </c>
+      <c r="W30" t="s">
         <v>94</v>
       </c>
-      <c r="O30">
-        <v>2220.75</v>
-      </c>
-      <c r="P30">
-        <v>1345.2298356496599</v>
-      </c>
-      <c r="Q30">
-        <v>2220.75</v>
-      </c>
-      <c r="R30">
-        <v>1946.9949999999999</v>
-      </c>
-      <c r="S30">
-        <v>2220.75</v>
-      </c>
-      <c r="T30">
-        <v>1368.7750000000001</v>
-      </c>
-      <c r="U30">
-        <v>0.7030192681542583</v>
-      </c>
-      <c r="V30">
-        <v>-0.27803279653388191</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="Y30" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA30" t="s">
         <v>98</v>
       </c>
-      <c r="Y30" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA30" t="b">
-        <v>1</v>
-      </c>
       <c r="AB30" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD30">
+        <v>100</v>
+      </c>
+      <c r="AC30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31">
-        <v>6030.7</v>
+        <v>5064.29</v>
       </c>
       <c r="C31">
-        <v>6359.42</v>
+        <v>4463.17</v>
       </c>
       <c r="D31">
-        <v>5414.3</v>
+        <v>4952.3900000000003</v>
       </c>
       <c r="E31">
-        <v>6569.74</v>
+        <v>4656.1000000000004</v>
       </c>
       <c r="F31">
-        <v>6985.12</v>
+        <v>5062.8599999999997</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -3359,84 +3254,78 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>6271.8559999999989</v>
+        <v>4839.7619999999997</v>
       </c>
       <c r="K31">
-        <v>0.30330000000000001</v>
+        <v>0.78739999999999999</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>283.16743614442572</v>
+        <v>-116.75196925916229</v>
       </c>
       <c r="N31" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31">
+        <v>4839.7619999999997</v>
+      </c>
+      <c r="P31">
+        <v>2877.719890144836</v>
+      </c>
+      <c r="Q31">
+        <v>4839.7619999999997</v>
+      </c>
+      <c r="R31">
+        <v>4783.9874999999993</v>
+      </c>
+      <c r="S31">
+        <v>4839.7619999999997</v>
+      </c>
+      <c r="T31">
+        <v>278.8725000000004</v>
+      </c>
+      <c r="U31">
+        <v>5.8292898967649977E-2</v>
+      </c>
+      <c r="V31">
+        <v>-8.7294394681848679E-3</v>
+      </c>
+      <c r="W31" t="s">
         <v>94</v>
       </c>
-      <c r="O31">
-        <v>6271.8559999999989</v>
-      </c>
-      <c r="P31">
-        <v>3799.2064915448991</v>
-      </c>
-      <c r="Q31">
-        <v>6271.8559999999989</v>
-      </c>
-      <c r="R31">
-        <v>6093.5399999999991</v>
-      </c>
-      <c r="S31">
-        <v>6271.8559999999989</v>
-      </c>
-      <c r="T31">
-        <v>891.58000000000084</v>
-      </c>
-      <c r="U31">
-        <v>0.1463156063634605</v>
-      </c>
-      <c r="V31">
-        <v>-5.7865465509342663E-2</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="Y31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA31" t="s">
         <v>98</v>
       </c>
-      <c r="Y31" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD31">
+      <c r="AC31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32">
-        <v>3182.52</v>
+        <v>5296.69</v>
       </c>
       <c r="C32">
-        <v>3188.92</v>
+        <v>3396.66</v>
       </c>
       <c r="D32">
-        <v>3196.12</v>
+        <v>5704.31</v>
       </c>
       <c r="E32">
-        <v>3492.32</v>
+        <v>4265.41</v>
       </c>
       <c r="F32">
-        <v>3767.37</v>
+        <v>4928.1400000000003</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -3448,81 +3337,78 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3365.45</v>
+        <v>4718.2420000000002</v>
       </c>
       <c r="K32">
-        <v>0.62190000000000001</v>
+        <v>0.37990000000000002</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>130.87178835850139</v>
+        <v>-588.87811311464247</v>
       </c>
       <c r="N32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32">
+        <v>4718.2420000000002</v>
+      </c>
+      <c r="P32">
+        <v>2805.464163303227</v>
+      </c>
+      <c r="Q32">
+        <v>4718.2420000000002</v>
+      </c>
+      <c r="R32">
+        <v>4665.7674999999999</v>
+      </c>
+      <c r="S32">
+        <v>4718.2420000000002</v>
+      </c>
+      <c r="T32">
+        <v>262.3725000000004</v>
+      </c>
+      <c r="U32">
+        <v>5.623351356448867E-2</v>
+      </c>
+      <c r="V32">
+        <v>-8.4210437538365934E-3</v>
+      </c>
+      <c r="W32" t="s">
         <v>94</v>
       </c>
-      <c r="O32">
-        <v>3365.45</v>
-      </c>
-      <c r="P32">
-        <v>2038.637284875447</v>
-      </c>
-      <c r="Q32">
-        <v>3365.45</v>
-      </c>
-      <c r="R32">
-        <v>3264.97</v>
-      </c>
-      <c r="S32">
-        <v>3365.45</v>
-      </c>
-      <c r="T32">
-        <v>502.39999999999958</v>
-      </c>
-      <c r="U32">
-        <v>0.15387583959423809</v>
-      </c>
-      <c r="V32">
-        <v>-6.0855415974171552E-2</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="Y32" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA32" t="s">
         <v>98</v>
       </c>
-      <c r="Y32" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD32">
+      <c r="AC32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
       <c r="B33">
-        <v>3642.54</v>
+        <v>512.46</v>
       </c>
       <c r="C33">
-        <v>2696.24</v>
+        <v>512.46</v>
       </c>
       <c r="D33">
-        <v>3518.76</v>
+        <v>732.48</v>
       </c>
       <c r="E33">
-        <v>4802.84</v>
+        <v>568.79999999999995</v>
       </c>
       <c r="F33">
-        <v>4160.21</v>
+        <v>732.45</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -3534,81 +3420,78 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>3764.1179999999999</v>
+        <v>611.7299999999999</v>
       </c>
       <c r="K33">
-        <v>0.51380000000000003</v>
+        <v>0.32490000000000002</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-344.89787125297238</v>
+        <v>29.182594079365121</v>
       </c>
       <c r="N33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33">
+        <v>611.7299999999999</v>
+      </c>
+      <c r="P33">
+        <v>363.7343299935618</v>
+      </c>
+      <c r="Q33">
+        <v>611.7299999999999</v>
+      </c>
+      <c r="R33">
+        <v>581.54999999999995</v>
+      </c>
+      <c r="S33">
+        <v>611.7299999999999</v>
+      </c>
+      <c r="T33">
+        <v>150.90000000000009</v>
+      </c>
+      <c r="U33">
+        <v>0.25947897859169478</v>
+      </c>
+      <c r="V33">
+        <v>-3.8857323567655672E-2</v>
+      </c>
+      <c r="W33" t="s">
         <v>94</v>
       </c>
-      <c r="O33">
-        <v>3764.1179999999999</v>
-      </c>
-      <c r="P33">
-        <v>2280.132314986346</v>
-      </c>
-      <c r="Q33">
-        <v>3764.1179999999999</v>
-      </c>
-      <c r="R33">
-        <v>3665.0949999999998</v>
-      </c>
-      <c r="S33">
-        <v>3764.1179999999999</v>
-      </c>
-      <c r="T33">
-        <v>495.11500000000018</v>
-      </c>
-      <c r="U33">
-        <v>0.13508926780888361</v>
-      </c>
-      <c r="V33">
-        <v>-5.3425629441463708E-2</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="Y33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA33" t="s">
         <v>98</v>
       </c>
-      <c r="Y33" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD33">
+      <c r="AC33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
       <c r="B34">
-        <v>776.99</v>
+        <v>529.64</v>
       </c>
       <c r="C34">
-        <v>763.99</v>
+        <v>550.63</v>
       </c>
       <c r="D34">
-        <v>931.27</v>
+        <v>682.63</v>
       </c>
       <c r="E34">
-        <v>766.94</v>
+        <v>516.33000000000004</v>
       </c>
       <c r="F34">
-        <v>1011.95</v>
+        <v>1643.02</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -3620,81 +3503,78 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>850.22800000000007</v>
+        <v>784.45</v>
       </c>
       <c r="K34">
-        <v>0.26269999999999999</v>
+        <v>0.65910000000000002</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>84.204935760502053</v>
+        <v>297.56188249817387</v>
       </c>
       <c r="N34" t="s">
+        <v>89</v>
+      </c>
+      <c r="O34">
+        <v>784.45</v>
+      </c>
+      <c r="P34">
+        <v>466.43354938199798</v>
+      </c>
+      <c r="Q34">
+        <v>784.45</v>
+      </c>
+      <c r="R34">
+        <v>569.8075</v>
+      </c>
+      <c r="S34">
+        <v>784.45</v>
+      </c>
+      <c r="T34">
+        <v>1073.2125000000001</v>
+      </c>
+      <c r="U34">
+        <v>1.883465029856574</v>
+      </c>
+      <c r="V34">
+        <v>-0.28205140351143521</v>
+      </c>
+      <c r="W34" t="s">
         <v>94</v>
       </c>
-      <c r="O34">
-        <v>850.22800000000007</v>
-      </c>
-      <c r="P34">
-        <v>515.02963985353563</v>
-      </c>
-      <c r="Q34">
-        <v>850.22800000000007</v>
-      </c>
-      <c r="R34">
-        <v>809.79750000000001</v>
-      </c>
-      <c r="S34">
-        <v>850.22800000000007</v>
-      </c>
-      <c r="T34">
-        <v>202.1525</v>
-      </c>
-      <c r="U34">
-        <v>0.24963339600332191</v>
-      </c>
-      <c r="V34">
-        <v>-9.872598710029129E-2</v>
-      </c>
-      <c r="W34" t="s">
-        <v>98</v>
-      </c>
       <c r="Y34" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD34">
+        <v>96</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>62</v>
       </c>
       <c r="B35">
-        <v>3001.82</v>
+        <v>3176.92</v>
       </c>
       <c r="C35">
-        <v>3001.03</v>
+        <v>3170.52</v>
       </c>
       <c r="D35">
-        <v>2998.97</v>
+        <v>3176.92</v>
       </c>
       <c r="E35">
-        <v>3000</v>
+        <v>3484.52</v>
       </c>
       <c r="F35">
-        <v>3036.95</v>
+        <v>3820.82</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3706,81 +3586,78 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3007.7539999999999</v>
+        <v>3365.94</v>
       </c>
       <c r="K35">
-        <v>0.55459999999999998</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>13.11019587385181</v>
+        <v>221.01342847521479</v>
       </c>
       <c r="N35" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35">
+        <v>3365.94</v>
+      </c>
+      <c r="P35">
+        <v>2001.3861192005129</v>
+      </c>
+      <c r="Q35">
+        <v>3365.94</v>
+      </c>
+      <c r="R35">
+        <v>3252.22</v>
+      </c>
+      <c r="S35">
+        <v>3365.94</v>
+      </c>
+      <c r="T35">
+        <v>568.59999999999991</v>
+      </c>
+      <c r="U35">
+        <v>0.1748344207956411</v>
+      </c>
+      <c r="V35">
+        <v>-2.6181687998356171E-2</v>
+      </c>
+      <c r="W35" t="s">
         <v>94</v>
       </c>
-      <c r="O35">
-        <v>3007.7539999999999</v>
-      </c>
-      <c r="P35">
-        <v>1821.9612379126911</v>
-      </c>
-      <c r="Q35">
-        <v>3007.7539999999999</v>
-      </c>
-      <c r="R35">
-        <v>3000.4549999999999</v>
-      </c>
-      <c r="S35">
-        <v>3007.7539999999999</v>
-      </c>
-      <c r="T35">
-        <v>36.494999999999891</v>
-      </c>
-      <c r="U35">
-        <v>1.2163155254786321E-2</v>
-      </c>
-      <c r="V35">
-        <v>-4.8103319828525486E-3</v>
-      </c>
-      <c r="W35" t="s">
-        <v>98</v>
-      </c>
       <c r="Y35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD35">
+        <v>96</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
       <c r="B36">
-        <v>1259.67</v>
+        <v>1845.07</v>
       </c>
       <c r="C36">
-        <v>1217.98</v>
+        <v>253.92</v>
       </c>
       <c r="D36">
-        <v>1251.56</v>
+        <v>1883.84</v>
       </c>
       <c r="E36">
-        <v>1327.49</v>
+        <v>1945.16</v>
       </c>
       <c r="F36">
-        <v>1284.78</v>
+        <v>1977.21</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -3792,81 +3669,78 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1268.296</v>
+        <v>1581.04</v>
       </c>
       <c r="K36">
-        <v>0.42949999999999999</v>
+        <v>0.31640000000000001</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-18.836861650014502</v>
+        <v>-200.4648604730196</v>
       </c>
       <c r="N36" t="s">
+        <v>89</v>
+      </c>
+      <c r="O36">
+        <v>1581.04</v>
+      </c>
+      <c r="P36">
+        <v>940.08553625459115</v>
+      </c>
+      <c r="Q36">
+        <v>1581.04</v>
+      </c>
+      <c r="R36">
+        <v>1481.9974999999999</v>
+      </c>
+      <c r="S36">
+        <v>1581.04</v>
+      </c>
+      <c r="T36">
+        <v>495.21250000000009</v>
+      </c>
+      <c r="U36">
+        <v>0.33415204816472371</v>
+      </c>
+      <c r="V36">
+        <v>-5.0039715459043059E-2</v>
+      </c>
+      <c r="W36" t="s">
         <v>94</v>
       </c>
-      <c r="O36">
-        <v>1268.296</v>
-      </c>
-      <c r="P36">
-        <v>768.27631189243323</v>
-      </c>
-      <c r="Q36">
-        <v>1268.296</v>
-      </c>
-      <c r="R36">
-        <v>1264.175</v>
-      </c>
-      <c r="S36">
-        <v>1268.296</v>
-      </c>
-      <c r="T36">
-        <v>20.605000000000022</v>
-      </c>
-      <c r="U36">
-        <v>1.6299167441216619E-2</v>
-      </c>
-      <c r="V36">
-        <v>-6.4460581809559934E-3</v>
-      </c>
-      <c r="W36" t="s">
-        <v>98</v>
-      </c>
       <c r="Y36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD36">
+        <v>96</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>64</v>
       </c>
       <c r="B37">
-        <v>200</v>
+        <v>1845.07</v>
       </c>
       <c r="C37">
-        <v>3199.92</v>
+        <v>253.92</v>
       </c>
       <c r="D37">
-        <v>4800</v>
+        <v>1883.84</v>
       </c>
       <c r="E37">
-        <v>3449.99</v>
+        <v>1945.16</v>
       </c>
       <c r="F37">
-        <v>3449.99</v>
+        <v>1977.21</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3878,81 +3752,81 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3019.98</v>
+        <v>1581.04</v>
       </c>
       <c r="K37">
-        <v>6.0499999999999998E-2</v>
+        <v>0.31640000000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>981.33560599460134</v>
+        <v>-200.4648604730196</v>
       </c>
       <c r="N37" t="s">
+        <v>89</v>
+      </c>
+      <c r="O37">
+        <v>1581.04</v>
+      </c>
+      <c r="P37">
+        <v>940.08553625459115</v>
+      </c>
+      <c r="Q37">
+        <v>1581.04</v>
+      </c>
+      <c r="R37">
+        <v>1481.9974999999999</v>
+      </c>
+      <c r="S37">
+        <v>1581.04</v>
+      </c>
+      <c r="T37">
+        <v>495.21250000000009</v>
+      </c>
+      <c r="U37">
+        <v>0.33415204816472371</v>
+      </c>
+      <c r="V37">
+        <v>-5.0039715459043059E-2</v>
+      </c>
+      <c r="W37" t="s">
         <v>94</v>
       </c>
-      <c r="O37">
-        <v>3019.98</v>
-      </c>
-      <c r="P37">
-        <v>1829.367195346284</v>
-      </c>
-      <c r="Q37">
-        <v>3019.98</v>
-      </c>
-      <c r="R37">
-        <v>2912.4775</v>
-      </c>
-      <c r="S37">
-        <v>3019.98</v>
-      </c>
-      <c r="T37">
-        <v>537.51249999999982</v>
-      </c>
-      <c r="U37">
-        <v>0.18455507381602079</v>
-      </c>
-      <c r="V37">
-        <v>-7.2988558937087583E-2</v>
-      </c>
-      <c r="W37" t="s">
-        <v>98</v>
-      </c>
       <c r="Y37" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA37" t="b">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>99</v>
       </c>
       <c r="AB37" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD37">
+        <v>100</v>
+      </c>
+      <c r="AC37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
       <c r="B38">
-        <v>3328.87</v>
+        <v>1816.76</v>
       </c>
       <c r="C38">
-        <v>4545.1400000000003</v>
+        <v>1157.78</v>
       </c>
       <c r="D38">
-        <v>3460.13</v>
+        <v>1166.5999999999999</v>
       </c>
       <c r="E38">
-        <v>5326.1</v>
+        <v>1399.59</v>
       </c>
       <c r="F38">
-        <v>4673.57</v>
+        <v>1409.51</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -3964,84 +3838,81 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>4266.7619999999997</v>
+        <v>1390.048</v>
       </c>
       <c r="K38">
-        <v>2.3199999999999998E-2</v>
+        <v>0.1835</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>235.72744935168609</v>
+        <v>-144.02117890248431</v>
       </c>
       <c r="N38" t="s">
+        <v>89</v>
+      </c>
+      <c r="O38">
+        <v>1390.048</v>
+      </c>
+      <c r="P38">
+        <v>826.52179546350624</v>
+      </c>
+      <c r="Q38">
+        <v>1390.048</v>
+      </c>
+      <c r="R38">
+        <v>1385.1824999999999</v>
+      </c>
+      <c r="S38">
+        <v>1390.048</v>
+      </c>
+      <c r="T38">
+        <v>24.3275000000001</v>
+      </c>
+      <c r="U38">
+        <v>1.7562667735118009E-2</v>
+      </c>
+      <c r="V38">
+        <v>-2.6300329475574319E-3</v>
+      </c>
+      <c r="W38" t="s">
         <v>94</v>
       </c>
-      <c r="O38">
-        <v>4266.7619999999997</v>
-      </c>
-      <c r="P38">
-        <v>2584.6112997934101</v>
-      </c>
-      <c r="Q38">
-        <v>4266.7619999999997</v>
-      </c>
-      <c r="R38">
-        <v>4165.0599999999986</v>
-      </c>
-      <c r="S38">
-        <v>4266.7619999999997</v>
-      </c>
-      <c r="T38">
-        <v>508.51000000000022</v>
-      </c>
-      <c r="U38">
-        <v>0.1220894777026022</v>
-      </c>
-      <c r="V38">
-        <v>-4.8284421851105257E-2</v>
-      </c>
-      <c r="W38" t="s">
-        <v>98</v>
-      </c>
       <c r="Y38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD38">
+        <v>96</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
       <c r="B39">
-        <v>1103.56</v>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>519.03</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>314.02999999999997</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>314.02999999999997</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>628.05999999999995</v>
+        <v>657</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4050,84 +3921,81 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>575.74199999999996</v>
+        <v>135</v>
       </c>
       <c r="K39">
-        <v>0.1139</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-92.386789961771456</v>
+        <v>0</v>
       </c>
       <c r="N39" t="s">
+        <v>91</v>
+      </c>
+      <c r="O39">
+        <v>135</v>
+      </c>
+      <c r="P39">
+        <v>80.27092761370352</v>
+      </c>
+      <c r="Q39">
+        <v>135</v>
+      </c>
+      <c r="R39">
+        <v>4.5</v>
+      </c>
+      <c r="S39">
+        <v>135</v>
+      </c>
+      <c r="T39">
+        <v>652.5</v>
+      </c>
+      <c r="U39">
+        <v>145</v>
+      </c>
+      <c r="V39">
+        <v>-21.713943641561769</v>
+      </c>
+      <c r="W39" t="s">
         <v>94</v>
       </c>
-      <c r="O39">
-        <v>575.74199999999996</v>
-      </c>
-      <c r="P39">
-        <v>348.7584446860775</v>
-      </c>
-      <c r="Q39">
-        <v>575.74199999999996</v>
-      </c>
-      <c r="R39">
-        <v>562.66249999999991</v>
-      </c>
-      <c r="S39">
-        <v>575.74199999999996</v>
-      </c>
-      <c r="T39">
-        <v>65.397500000000036</v>
-      </c>
-      <c r="U39">
-        <v>0.1162286450580944</v>
-      </c>
-      <c r="V39">
-        <v>-4.5966556944716928E-2</v>
-      </c>
-      <c r="W39" t="s">
-        <v>98</v>
-      </c>
       <c r="Y39" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD39">
+        <v>95</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
       <c r="B40">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>500</v>
+        <v>825</v>
       </c>
       <c r="F40">
-        <v>500</v>
+        <v>825</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4136,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4148,69 +4016,66 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
+        <v>91</v>
+      </c>
+      <c r="O40">
+        <v>330</v>
+      </c>
+      <c r="P40">
+        <v>196.21782305571969</v>
+      </c>
+      <c r="Q40">
+        <v>330</v>
+      </c>
+      <c r="R40">
+        <v>206.25</v>
+      </c>
+      <c r="S40">
+        <v>330</v>
+      </c>
+      <c r="T40">
+        <v>618.75</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>-0.44925400637714002</v>
+      </c>
+      <c r="W40" t="s">
         <v>94</v>
       </c>
-      <c r="O40">
-        <v>500</v>
-      </c>
-      <c r="P40">
-        <v>302.87736927832037</v>
-      </c>
-      <c r="Q40">
-        <v>500</v>
-      </c>
-      <c r="R40">
-        <v>500</v>
-      </c>
-      <c r="S40">
-        <v>500</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
-        <v>99</v>
-      </c>
       <c r="Y40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD40">
+        <v>95</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
       <c r="B41">
-        <v>5673.94</v>
+        <v>147.24</v>
       </c>
       <c r="C41">
-        <v>5673.94</v>
+        <v>147.52000000000001</v>
       </c>
       <c r="D41">
-        <v>5673.94</v>
+        <v>147.47</v>
       </c>
       <c r="E41">
-        <v>5673.94</v>
+        <v>234.36</v>
       </c>
       <c r="F41">
-        <v>5673.94</v>
+        <v>294.83999999999997</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -4222,84 +4087,81 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>5673.94</v>
+        <v>194.286</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0.2455</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>52.739204918763789</v>
       </c>
       <c r="N41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O41">
+        <v>194.286</v>
+      </c>
+      <c r="P41">
+        <v>115.52235142485929</v>
+      </c>
+      <c r="Q41">
+        <v>194.286</v>
+      </c>
+      <c r="R41">
+        <v>169.14750000000001</v>
+      </c>
+      <c r="S41">
+        <v>194.286</v>
+      </c>
+      <c r="T41">
+        <v>125.6925</v>
+      </c>
+      <c r="U41">
+        <v>0.74309404513811883</v>
+      </c>
+      <c r="V41">
+        <v>-0.11127932563109839</v>
+      </c>
+      <c r="W41" t="s">
         <v>94</v>
       </c>
-      <c r="O41">
-        <v>5673.94</v>
-      </c>
-      <c r="P41">
-        <v>3437.016041286066</v>
-      </c>
-      <c r="Q41">
-        <v>5673.94</v>
-      </c>
-      <c r="R41">
-        <v>5673.94</v>
-      </c>
-      <c r="S41">
-        <v>5673.94</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
-        <v>99</v>
-      </c>
       <c r="Y41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z41" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD41">
+        <v>95</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
       <c r="B42">
-        <v>2163</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2163</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>2175</v>
+        <v>74</v>
       </c>
       <c r="E42">
-        <v>2163</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>2163</v>
+        <v>140.43</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4308,84 +4170,81 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2165.4</v>
+        <v>42.886000000000003</v>
       </c>
       <c r="K42">
-        <v>0.1075</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>-7.6211099817555805E-2</v>
+        <v>0</v>
       </c>
       <c r="N42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42">
+        <v>42.886000000000003</v>
+      </c>
+      <c r="P42">
+        <v>25.49999260475029</v>
+      </c>
+      <c r="Q42">
+        <v>42.886000000000003</v>
+      </c>
+      <c r="R42">
+        <v>18.5</v>
+      </c>
+      <c r="S42">
+        <v>42.886000000000003</v>
+      </c>
+      <c r="T42">
+        <v>121.93</v>
+      </c>
+      <c r="U42">
+        <v>6.5908108108108108</v>
+      </c>
+      <c r="V42">
+        <v>-0.98698272067684101</v>
+      </c>
+      <c r="W42" t="s">
         <v>94</v>
       </c>
-      <c r="O42">
-        <v>2165.4</v>
-      </c>
-      <c r="P42">
-        <v>1311.7013108705501</v>
-      </c>
-      <c r="Q42">
-        <v>2165.4</v>
-      </c>
-      <c r="R42">
-        <v>2166</v>
-      </c>
-      <c r="S42">
-        <v>2165.4</v>
-      </c>
-      <c r="T42">
-        <v>-3</v>
-      </c>
-      <c r="U42">
-        <v>-1.385041551246537E-3</v>
-      </c>
-      <c r="V42">
-        <v>5.477616236888173E-4</v>
-      </c>
-      <c r="W42" t="s">
-        <v>99</v>
-      </c>
       <c r="Y42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD42">
+        <v>95</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
       <c r="B43">
-        <v>1815.61</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="C43">
-        <v>1147.8599999999999</v>
+        <v>94.12</v>
       </c>
       <c r="D43">
-        <v>669.86</v>
+        <v>74</v>
       </c>
       <c r="E43">
-        <v>1575.78</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1248.72</v>
+        <v>140.43</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4394,81 +4253,78 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1291.566</v>
+        <v>76.445999999999998</v>
       </c>
       <c r="K43">
-        <v>0.18459999999999999</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>-290.90583651243969</v>
+        <v>14.294600626676869</v>
       </c>
       <c r="N43" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43">
+        <v>76.445999999999998</v>
+      </c>
+      <c r="P43">
+        <v>45.454750610053168</v>
+      </c>
+      <c r="Q43">
+        <v>76.445999999999998</v>
+      </c>
+      <c r="R43">
+        <v>60.45</v>
+      </c>
+      <c r="S43">
+        <v>76.445999999999998</v>
+      </c>
+      <c r="T43">
+        <v>79.98</v>
+      </c>
+      <c r="U43">
+        <v>1.323076923076923</v>
+      </c>
+      <c r="V43">
+        <v>-0.19813253614581561</v>
+      </c>
+      <c r="W43" t="s">
         <v>94</v>
       </c>
-      <c r="O43">
-        <v>1291.566</v>
-      </c>
-      <c r="P43">
-        <v>782.37222465864647</v>
-      </c>
-      <c r="Q43">
-        <v>1291.566</v>
-      </c>
-      <c r="R43">
-        <v>1302.2774999999999</v>
-      </c>
-      <c r="S43">
-        <v>1291.566</v>
-      </c>
-      <c r="T43">
-        <v>-53.557499999999891</v>
-      </c>
-      <c r="U43">
-        <v>-4.1126027286810911E-2</v>
-      </c>
-      <c r="V43">
-        <v>1.626468134636078E-2</v>
-      </c>
-      <c r="W43" t="s">
-        <v>99</v>
-      </c>
       <c r="Y43" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD43">
+        <v>95</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
       <c r="B44">
-        <v>1452.07</v>
+        <v>189.03</v>
       </c>
       <c r="C44">
-        <v>1452.07</v>
+        <v>184.86</v>
       </c>
       <c r="D44">
-        <v>1379.07</v>
+        <v>178.25</v>
       </c>
       <c r="E44">
-        <v>1452.07</v>
+        <v>176.77</v>
       </c>
       <c r="F44">
-        <v>1379.07</v>
+        <v>253.64</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -4480,81 +4336,78 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1422.87</v>
+        <v>196.51</v>
       </c>
       <c r="K44">
-        <v>0.1123</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>-26.107856121190029</v>
+        <v>18.846548790800629</v>
       </c>
       <c r="N44" t="s">
+        <v>89</v>
+      </c>
+      <c r="O44">
+        <v>196.51</v>
+      </c>
+      <c r="P44">
+        <v>116.844740632362</v>
+      </c>
+      <c r="Q44">
+        <v>196.51</v>
+      </c>
+      <c r="R44">
+        <v>182.22749999999999</v>
+      </c>
+      <c r="S44">
+        <v>196.51</v>
+      </c>
+      <c r="T44">
+        <v>71.412499999999994</v>
+      </c>
+      <c r="U44">
+        <v>0.39188651548202108</v>
+      </c>
+      <c r="V44">
+        <v>-5.8685529041825023E-2</v>
+      </c>
+      <c r="W44" t="s">
         <v>94</v>
       </c>
-      <c r="O44">
-        <v>1422.87</v>
-      </c>
-      <c r="P44">
-        <v>861.91024485008757</v>
-      </c>
-      <c r="Q44">
-        <v>1422.87</v>
-      </c>
-      <c r="R44">
-        <v>1433.82</v>
-      </c>
-      <c r="S44">
-        <v>1422.87</v>
-      </c>
-      <c r="T44">
-        <v>-54.75</v>
-      </c>
-      <c r="U44">
-        <v>-3.8184709377746158E-2</v>
-      </c>
-      <c r="V44">
-        <v>1.510143749118237E-2</v>
-      </c>
-      <c r="W44" t="s">
-        <v>99</v>
-      </c>
       <c r="Y44" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD44">
+        <v>95</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
       <c r="B45">
-        <v>4224.5</v>
+        <v>-347.91</v>
       </c>
       <c r="C45">
-        <v>3159.5</v>
+        <v>-380.48</v>
       </c>
       <c r="D45">
-        <v>439.3</v>
+        <v>-369.93</v>
       </c>
       <c r="E45">
-        <v>3119.75</v>
+        <v>-372.98</v>
       </c>
       <c r="F45">
-        <v>2672.57</v>
+        <v>-323.85000000000002</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -4566,81 +4419,78 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>2723.1239999999998</v>
+        <v>-359.03</v>
       </c>
       <c r="K45">
-        <v>5.74E-2</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>-492.84192149015962</v>
+        <v>3.3693444577991158</v>
       </c>
       <c r="N45" t="s">
+        <v>89</v>
+      </c>
+      <c r="O45">
+        <v>-359.03</v>
+      </c>
+      <c r="P45">
+        <v>-213.479045489985</v>
+      </c>
+      <c r="Q45">
+        <v>-359.03</v>
+      </c>
+      <c r="R45">
+        <v>-367.82499999999999</v>
+      </c>
+      <c r="S45">
+        <v>-359.03</v>
+      </c>
+      <c r="T45">
+        <v>43.975000000000023</v>
+      </c>
+      <c r="U45">
+        <v>-0.1195541357982737</v>
+      </c>
+      <c r="V45">
+        <v>1.7903391495443701E-2</v>
+      </c>
+      <c r="W45" t="s">
         <v>94</v>
       </c>
-      <c r="O45">
-        <v>2723.1239999999998</v>
-      </c>
-      <c r="P45">
-        <v>1649.545266677314</v>
-      </c>
-      <c r="Q45">
-        <v>2723.1239999999998</v>
-      </c>
-      <c r="R45">
-        <v>2735.7624999999998</v>
-      </c>
-      <c r="S45">
-        <v>2723.1239999999998</v>
-      </c>
-      <c r="T45">
-        <v>-63.192499999999647</v>
-      </c>
-      <c r="U45">
-        <v>-2.3098679070277361E-2</v>
-      </c>
-      <c r="V45">
-        <v>9.1351555057786627E-3</v>
-      </c>
-      <c r="W45" t="s">
-        <v>99</v>
-      </c>
       <c r="Y45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD45">
+        <v>95</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>73</v>
       </c>
       <c r="B46">
-        <v>2844.06</v>
+        <v>159.52000000000001</v>
       </c>
       <c r="C46">
-        <v>2621.49</v>
+        <v>200.94</v>
       </c>
       <c r="D46">
-        <v>2444.5300000000002</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="E46">
-        <v>2477.56</v>
+        <v>206.58</v>
       </c>
       <c r="F46">
-        <v>2452.65</v>
+        <v>203.88</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -4652,81 +4502,78 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2568.058</v>
+        <v>179.84399999999999</v>
       </c>
       <c r="K46">
-        <v>9.5999999999999992E-3</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>-93.379452668870726</v>
+        <v>30.35144870339667</v>
       </c>
       <c r="N46" t="s">
+        <v>89</v>
+      </c>
+      <c r="O46">
+        <v>179.84399999999999</v>
+      </c>
+      <c r="P46">
+        <v>106.93514596858439</v>
+      </c>
+      <c r="Q46">
+        <v>179.84399999999999</v>
+      </c>
+      <c r="R46">
+        <v>173.83500000000001</v>
+      </c>
+      <c r="S46">
+        <v>179.84399999999999</v>
+      </c>
+      <c r="T46">
+        <v>30.044999999999991</v>
+      </c>
+      <c r="U46">
+        <v>0.17283631029424451</v>
+      </c>
+      <c r="V46">
+        <v>-2.588246828237728E-2</v>
+      </c>
+      <c r="W46" t="s">
         <v>94</v>
       </c>
-      <c r="O46">
-        <v>2568.058</v>
-      </c>
-      <c r="P46">
-        <v>1555.6133023882901</v>
-      </c>
-      <c r="Q46">
-        <v>2568.058</v>
-      </c>
-      <c r="R46">
-        <v>2596.91</v>
-      </c>
-      <c r="S46">
-        <v>2568.058</v>
-      </c>
-      <c r="T46">
-        <v>-144.25999999999979</v>
-      </c>
-      <c r="U46">
-        <v>-5.555063517796141E-2</v>
-      </c>
-      <c r="V46">
-        <v>2.1969381420102251E-2</v>
-      </c>
-      <c r="W46" t="s">
-        <v>99</v>
-      </c>
       <c r="Y46" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD46">
+        <v>95</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>74</v>
       </c>
       <c r="B47">
-        <v>1332.87</v>
+        <v>147.1</v>
       </c>
       <c r="C47">
-        <v>1237.22</v>
+        <v>147.1</v>
       </c>
       <c r="D47">
-        <v>1244.23</v>
+        <v>147.1</v>
       </c>
       <c r="E47">
-        <v>933.93</v>
+        <v>149.57</v>
       </c>
       <c r="F47">
-        <v>919.04</v>
+        <v>149.57</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -4735,84 +4582,81 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1.6999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1096.9588193758429</v>
+        <v>148.08799999999999</v>
       </c>
       <c r="K47">
-        <v>0.34439999999999998</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>-65.048432230097774</v>
+        <v>0.99548575428082131</v>
       </c>
       <c r="N47" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O47">
-        <v>981.74575637584269</v>
+        <v>148.08799999999999</v>
       </c>
       <c r="P47">
-        <v>594.69714398254018</v>
+        <v>88.053045395986103</v>
       </c>
       <c r="Q47">
-        <v>981.74575637584269</v>
+        <v>148.08799999999999</v>
       </c>
       <c r="R47">
-        <v>1187.0625</v>
+        <v>147.7175</v>
       </c>
       <c r="S47">
-        <v>1133.4580000000001</v>
+        <v>148.08799999999999</v>
       </c>
       <c r="T47">
-        <v>-268.02249999999998</v>
+        <v>1.85250000000002</v>
       </c>
       <c r="U47">
-        <v>-0.2257863423366504</v>
+        <v>1.254082962411374E-2</v>
       </c>
       <c r="V47">
-        <v>8.9294861496229755E-2</v>
+        <v>-1.878005983975406E-3</v>
       </c>
       <c r="W47" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Y47" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD47">
+        <v>95</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>75</v>
       </c>
       <c r="B48">
-        <v>11627.38</v>
+        <v>47.25</v>
       </c>
       <c r="C48">
-        <v>11832.38</v>
+        <v>45.75</v>
       </c>
       <c r="D48">
-        <v>12037.38</v>
+        <v>45.75</v>
       </c>
       <c r="E48">
-        <v>12939.35</v>
+        <v>44.25</v>
       </c>
       <c r="F48">
-        <v>11832.38</v>
+        <v>47.25</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -4824,170 +4668,164 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>12053.773999999999</v>
+        <v>46.05</v>
       </c>
       <c r="K48">
-        <v>2.9999999999999997E-4</v>
+        <v>0.68610000000000004</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>-233.24861028273151</v>
+        <v>-0.28264790936145801</v>
       </c>
       <c r="N48" t="s">
+        <v>89</v>
+      </c>
+      <c r="O48">
+        <v>46.05</v>
+      </c>
+      <c r="P48">
+        <v>27.38130530822998</v>
+      </c>
+      <c r="Q48">
+        <v>46.05</v>
+      </c>
+      <c r="R48">
+        <v>45.75</v>
+      </c>
+      <c r="S48">
+        <v>46.05</v>
+      </c>
+      <c r="T48">
+        <v>1.5</v>
+      </c>
+      <c r="U48">
+        <v>3.2786885245901641E-2</v>
+      </c>
+      <c r="V48">
+        <v>-4.909879851116284E-3</v>
+      </c>
+      <c r="W48" t="s">
         <v>94</v>
       </c>
-      <c r="O48">
-        <v>12053.773999999999</v>
-      </c>
-      <c r="P48">
-        <v>7301.6307179908335</v>
-      </c>
-      <c r="Q48">
-        <v>12053.773999999999</v>
-      </c>
-      <c r="R48">
-        <v>12109.122499999999</v>
-      </c>
-      <c r="S48">
-        <v>12053.773999999999</v>
-      </c>
-      <c r="T48">
-        <v>-276.74250000000029</v>
-      </c>
-      <c r="U48">
-        <v>-2.2854050737367661E-2</v>
-      </c>
-      <c r="V48">
-        <v>9.0384089405118606E-3</v>
-      </c>
-      <c r="W48" t="s">
-        <v>99</v>
-      </c>
       <c r="Y48" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD48">
+        <v>95</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>76</v>
       </c>
       <c r="B49">
-        <v>667.72</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>613.21</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>635.05999999999995</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>528.08000000000004</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>422.64045369903062</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0.54369999999999996</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>-218.0047971699679</v>
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O49">
-        <v>219.32328369903061</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>132.8561183764902</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>219.32328369903061</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>611.01750000000004</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>488.81400000000002</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>-611.01750000000004</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0.39548389230332609</v>
+        <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y49" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z49" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD49">
+        <v>95</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
       <c r="B50">
-        <v>3325</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4996,84 +4834,81 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>4.3099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>-806.53165411470968</v>
+        <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O50">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>802.6250285875492</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>-0.43103448275862072</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>0.17046719495833021</v>
+        <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y50" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD50">
+        <v>95</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
       <c r="B51">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1366.9</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -5082,84 +4917,81 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>773.38</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>7.8200000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>-275.09702670229598</v>
+        <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O51">
-        <v>773.38</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>468.47859970493488</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>773.38</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>916.72500000000002</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>773.38</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>-716.72500000000002</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>-0.78183206523221249</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>0.30920198828558337</v>
+        <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z51" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD51">
+        <v>95</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>79</v>
       </c>
       <c r="B52">
-        <v>1900</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="C52">
-        <v>1366.9</v>
+        <v>94.12</v>
       </c>
       <c r="D52">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -5168,81 +5000,78 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>773.38</v>
+        <v>33.56</v>
       </c>
       <c r="K52">
-        <v>7.8200000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>-275.09702670229598</v>
+        <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O52">
-        <v>773.38</v>
+        <v>33.56</v>
       </c>
       <c r="P52">
-        <v>468.47859970493488</v>
+        <v>19.954758005302889</v>
       </c>
       <c r="Q52">
-        <v>773.38</v>
+        <v>33.56</v>
       </c>
       <c r="R52">
-        <v>916.72500000000002</v>
+        <v>41.95</v>
       </c>
       <c r="S52">
-        <v>773.38</v>
+        <v>33.56</v>
       </c>
       <c r="T52">
-        <v>-716.72500000000002</v>
+        <v>-41.95</v>
       </c>
       <c r="U52">
-        <v>-0.78183206523221249</v>
+        <v>-1</v>
       </c>
       <c r="V52">
-        <v>0.30920198828558337</v>
+        <v>0.14975133545904659</v>
       </c>
       <c r="W52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y52" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD52">
+        <v>95</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>80</v>
       </c>
       <c r="B53">
-        <v>1584.7</v>
+        <v>347.91</v>
       </c>
       <c r="C53">
-        <v>2440.75</v>
+        <v>380.48</v>
       </c>
       <c r="D53">
-        <v>5457.1</v>
+        <v>369.93</v>
       </c>
       <c r="E53">
-        <v>1921.7</v>
+        <v>372.98</v>
       </c>
       <c r="F53">
-        <v>2125.38</v>
+        <v>323.85000000000002</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -5251,84 +5080,81 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="J53">
-        <v>2705.9259999999999</v>
+        <v>361.02805369895992</v>
       </c>
       <c r="K53">
-        <v>0.17330000000000001</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>281.99210805393022</v>
+        <v>-3.3693444577991158</v>
       </c>
       <c r="N53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O53">
-        <v>2705.9259999999999</v>
+        <v>328.19426969895989</v>
       </c>
       <c r="P53">
-        <v>1639.127496683617</v>
+        <v>195.14413678694439</v>
       </c>
       <c r="Q53">
-        <v>2705.9259999999999</v>
+        <v>328.19426969895989</v>
       </c>
       <c r="R53">
-        <v>2851.0625</v>
+        <v>367.82499999999999</v>
       </c>
       <c r="S53">
-        <v>2705.9259999999999</v>
+        <v>359.03</v>
       </c>
       <c r="T53">
-        <v>-725.68249999999989</v>
+        <v>-43.975000000000023</v>
       </c>
       <c r="U53">
-        <v>-0.25453054782208379</v>
+        <v>-0.1195541357982737</v>
       </c>
       <c r="V53">
-        <v>0.1006627317627756</v>
+        <v>1.7903391495443701E-2</v>
       </c>
       <c r="W53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y53" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z53" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD53">
+        <v>95</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>81</v>
       </c>
       <c r="B54">
-        <v>9411.18</v>
+        <v>2139.79</v>
       </c>
       <c r="C54">
-        <v>8490.01</v>
+        <v>390.27</v>
       </c>
       <c r="D54">
-        <v>11316.59</v>
+        <v>-1482.06</v>
       </c>
       <c r="E54">
-        <v>10566.13</v>
+        <v>72.569999999999993</v>
       </c>
       <c r="F54">
-        <v>9200.25</v>
+        <v>108.53</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -5340,84 +5166,81 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>9796.8320000000003</v>
+        <v>245.82</v>
       </c>
       <c r="K54">
-        <v>2.0000000000000001E-4</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>-615.66295275155244</v>
+        <v>-411.16001517493987</v>
       </c>
       <c r="N54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O54">
-        <v>9796.8320000000003</v>
+        <v>245.82</v>
       </c>
       <c r="P54">
-        <v>5934.4774068433326</v>
+        <v>146.164440192597</v>
       </c>
       <c r="Q54">
-        <v>9796.8320000000003</v>
+        <v>245.82</v>
       </c>
       <c r="R54">
-        <v>9945.9775000000009</v>
+        <v>280.14249999999998</v>
       </c>
       <c r="S54">
-        <v>9796.8320000000003</v>
+        <v>245.82</v>
       </c>
       <c r="T54">
-        <v>-745.72750000000087</v>
+        <v>-171.61250000000001</v>
       </c>
       <c r="U54">
-        <v>-7.4977798813641069E-2</v>
+        <v>-0.61259002114995043</v>
       </c>
       <c r="V54">
-        <v>2.9652511711154479E-2</v>
+        <v>9.1736173756090708E-2</v>
       </c>
       <c r="W54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y54" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z54" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD54">
+        <v>95</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>82</v>
       </c>
       <c r="B55">
-        <v>3328.87</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>4545.1400000000003</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>3460.13</v>
+        <v>695.55</v>
       </c>
       <c r="E55">
-        <v>10716.94</v>
+        <v>226</v>
       </c>
       <c r="F55">
-        <v>4673.57</v>
+        <v>45</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -5426,173 +5249,164 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>5344.93</v>
+        <v>193.31</v>
       </c>
       <c r="K55">
-        <v>1.8100000000000002E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>-1215.905209574297</v>
+        <v>-91.983527787591527</v>
       </c>
       <c r="N55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O55">
-        <v>5344.93</v>
+        <v>193.31</v>
       </c>
       <c r="P55">
-        <v>3237.7166747535471</v>
+        <v>114.9420223481854</v>
       </c>
       <c r="Q55">
-        <v>5344.93</v>
+        <v>193.31</v>
       </c>
       <c r="R55">
-        <v>5512.77</v>
+        <v>230.38749999999999</v>
       </c>
       <c r="S55">
-        <v>5344.93</v>
+        <v>193.31</v>
       </c>
       <c r="T55">
-        <v>-839.20000000000073</v>
+        <v>-185.38749999999999</v>
       </c>
       <c r="U55">
-        <v>-0.1522283715808932</v>
+        <v>-0.80467690304378492</v>
       </c>
       <c r="V55">
-        <v>6.0203868911808678E-2</v>
+        <v>0.1205014408438566</v>
       </c>
       <c r="W55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y55" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z55" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD55">
+        <v>95</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>83</v>
       </c>
       <c r="B56">
-        <v>2464.92</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>2787.3</v>
+        <v>393.53</v>
       </c>
       <c r="D56">
-        <v>3489.2</v>
+        <v>51.2</v>
       </c>
       <c r="E56">
-        <v>3615.43</v>
+        <v>437.27</v>
       </c>
       <c r="F56">
-        <v>2199.1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="J56">
-        <v>2911.19</v>
+        <v>193.71470815134731</v>
       </c>
       <c r="K56">
-        <v>0.2074</v>
+        <v>0.77380000000000004</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>-337.55129314181801</v>
+        <v>99.264371334454779</v>
       </c>
       <c r="N56" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O56">
-        <v>2911.19</v>
+        <v>-97.685124848652777</v>
       </c>
       <c r="P56">
-        <v>1763.4671373387071</v>
+        <v>-58.083522856754058</v>
       </c>
       <c r="Q56">
-        <v>2911.19</v>
+        <v>-97.685124848652777</v>
       </c>
       <c r="R56">
-        <v>3089.2125000000001</v>
+        <v>220.5</v>
       </c>
       <c r="S56">
-        <v>2911.19</v>
+        <v>176.4</v>
       </c>
       <c r="T56">
-        <v>-890.11250000000018</v>
+        <v>-220.5</v>
       </c>
       <c r="U56">
-        <v>-0.28813573038436169</v>
+        <v>-1</v>
       </c>
       <c r="V56">
-        <v>0.1139530401640691</v>
+        <v>0.14975133545904659</v>
       </c>
       <c r="W56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y56" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z56" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD56">
+        <v>95</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>84</v>
       </c>
       <c r="B57">
-        <v>3112.5</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>937.5</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2837.5</v>
+        <v>1992</v>
       </c>
       <c r="E57">
-        <v>8877.5</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1887.5</v>
+        <v>249</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5601,84 +5415,81 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>3530.5</v>
+        <v>448.2</v>
       </c>
       <c r="K57">
-        <v>4.4200000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>-2506.0205875146689</v>
+        <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O57">
-        <v>3530.5</v>
+        <v>448.2</v>
       </c>
       <c r="P57">
-        <v>2138.61710447422</v>
+        <v>266.49947967749569</v>
       </c>
       <c r="Q57">
-        <v>3530.5</v>
+        <v>448.2</v>
       </c>
       <c r="R57">
-        <v>3941.25</v>
+        <v>498</v>
       </c>
       <c r="S57">
-        <v>3530.5</v>
+        <v>448.2</v>
       </c>
       <c r="T57">
-        <v>-2053.75</v>
+        <v>-249</v>
       </c>
       <c r="U57">
-        <v>-0.52109102442118616</v>
+        <v>-0.5</v>
       </c>
       <c r="V57">
-        <v>0.2060831065824183</v>
+        <v>7.4875667729523324E-2</v>
       </c>
       <c r="W57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y57" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z57" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD57">
+        <v>95</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>85</v>
       </c>
       <c r="B58">
-        <v>14106.31</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>14099.18</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>13010.97</v>
+        <v>202</v>
       </c>
       <c r="E58">
-        <v>17235.96</v>
+        <v>801.85</v>
       </c>
       <c r="F58">
-        <v>12007.99</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5687,749 +5498,307 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>14092.082</v>
+        <v>200.77</v>
       </c>
       <c r="K58">
-        <v>3.4700000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>-1601.2318775221081</v>
+        <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O58">
-        <v>14092.082</v>
+        <v>200.77</v>
       </c>
       <c r="P58">
-        <v>8536.3454476287443</v>
+        <v>119.3777343481723</v>
       </c>
       <c r="Q58">
-        <v>14092.082</v>
+        <v>200.77</v>
       </c>
       <c r="R58">
-        <v>14613.105</v>
+        <v>250.96250000000001</v>
       </c>
       <c r="S58">
-        <v>14092.082</v>
+        <v>200.77</v>
       </c>
       <c r="T58">
-        <v>-2605.1149999999998</v>
+        <v>-250.96250000000001</v>
       </c>
       <c r="U58">
-        <v>-0.17827251634748401</v>
+        <v>-1</v>
       </c>
       <c r="V58">
-        <v>7.0503908655811298E-2</v>
+        <v>0.14975133545904659</v>
       </c>
       <c r="W58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y58" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z58" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD58">
+        <v>95</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>86</v>
       </c>
       <c r="B59">
-        <v>8114.62</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>8135.5399999999991</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>7023.49</v>
+        <v>1266.25</v>
       </c>
       <c r="E59">
-        <v>11249.95</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>5844.98</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>8073.7160000000003</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>4.6100000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>-1658.5766880363869</v>
+        <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O59">
-        <v>8073.7160000000003</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>4890.6917247605688</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>8073.7160000000003</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>8630.9</v>
+        <v>316.5625</v>
       </c>
       <c r="S59">
-        <v>8073.7160000000003</v>
+        <v>253.25</v>
       </c>
       <c r="T59">
-        <v>-2785.9199999999992</v>
+        <v>-316.5625</v>
       </c>
       <c r="U59">
-        <v>-0.32278441413989262</v>
+        <v>-1</v>
       </c>
       <c r="V59">
-        <v>0.12765603647889351</v>
+        <v>0.14975133545904659</v>
       </c>
       <c r="W59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y59" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z59" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD59">
+        <v>95</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>87</v>
       </c>
       <c r="B60">
-        <v>12386.29</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>7767.27</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>9404.9</v>
+        <v>1266.25</v>
       </c>
       <c r="E60">
-        <v>15624.88</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>8412.4500000000007</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>10719.157999999999</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>6.2199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>-3381.5925902386348</v>
+        <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O60">
-        <v>10719.157999999999</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>6493.1807518373253</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>10719.157999999999</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>11295.834999999999</v>
+        <v>316.5625</v>
       </c>
       <c r="S60">
-        <v>10719.157999999999</v>
+        <v>253.25</v>
       </c>
       <c r="T60">
-        <v>-2883.3849999999979</v>
+        <v>-316.5625</v>
       </c>
       <c r="U60">
-        <v>-0.25526089926065659</v>
+        <v>-1</v>
       </c>
       <c r="V60">
-        <v>0.10095157399245171</v>
+        <v>0.14975133545904659</v>
       </c>
       <c r="W60" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y60" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z60" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD60">
+        <v>95</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>88</v>
       </c>
       <c r="B61">
-        <v>22513.66</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>3921.72</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>4777.82</v>
+        <v>4707.1000000000004</v>
       </c>
       <c r="E61">
-        <v>6136.33</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>5449.49</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>8559.8040000000001</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>8.0199999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>-6043.6799597968857</v>
+        <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O61">
-        <v>8559.8040000000001</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>5185.1418341160888</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>8559.8040000000001</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>9337.3824999999997</v>
+        <v>1176.7750000000001</v>
       </c>
       <c r="S61">
-        <v>8559.8040000000001</v>
+        <v>941.42000000000007</v>
       </c>
       <c r="T61">
-        <v>-3887.8924999999999</v>
+        <v>-1176.7750000000001</v>
       </c>
       <c r="U61">
-        <v>-0.41637926902962369</v>
+        <v>-1</v>
       </c>
       <c r="V61">
-        <v>0.16467129399024941</v>
+        <v>0.14975133545904659</v>
       </c>
       <c r="W61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y61" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z61" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD61">
+        <v>95</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC61">
         <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62">
-        <v>1983.37</v>
-      </c>
-      <c r="C62">
-        <v>6940.62</v>
-      </c>
-      <c r="D62">
-        <v>7208.97</v>
-      </c>
-      <c r="E62">
-        <v>4268.8900000000003</v>
-      </c>
-      <c r="F62">
-        <v>1129.48</v>
-      </c>
-      <c r="G62">
-        <v>5</v>
-      </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="J62">
-        <v>3480.6941672222811</v>
-      </c>
-      <c r="K62">
-        <v>0.84850000000000003</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>201.79142876003701</v>
-      </c>
-      <c r="N62" t="s">
-        <v>96</v>
-      </c>
-      <c r="O62">
-        <v>925.67506422228098</v>
-      </c>
-      <c r="P62">
-        <v>560.73205651636954</v>
-      </c>
-      <c r="Q62">
-        <v>925.67506422228098</v>
-      </c>
-      <c r="R62">
-        <v>5100.4624999999996</v>
-      </c>
-      <c r="S62">
-        <v>4306.2659999999996</v>
-      </c>
-      <c r="T62">
-        <v>-3970.9825000000001</v>
-      </c>
-      <c r="U62">
-        <v>-0.77855341549908463</v>
-      </c>
-      <c r="V62">
-        <v>0.30790533512762669</v>
-      </c>
-      <c r="W62" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63">
-        <v>35787.22</v>
-      </c>
-      <c r="C63">
-        <v>38592.959999999999</v>
-      </c>
-      <c r="D63">
-        <v>43246.62</v>
-      </c>
-      <c r="E63">
-        <v>40251.58</v>
-      </c>
-      <c r="F63">
-        <v>34297.730000000003</v>
-      </c>
-      <c r="G63">
-        <v>5</v>
-      </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="J63">
-        <v>37701.414032668094</v>
-      </c>
-      <c r="K63">
-        <v>0.40870000000000001</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>-1134.449821186477</v>
-      </c>
-      <c r="N63" t="s">
-        <v>96</v>
-      </c>
-      <c r="O63">
-        <v>35431.038967668093</v>
-      </c>
-      <c r="P63">
-        <v>21462.519746649941</v>
-      </c>
-      <c r="Q63">
-        <v>35431.038967668093</v>
-      </c>
-      <c r="R63">
-        <v>39469.595000000001</v>
-      </c>
-      <c r="S63">
-        <v>38435.222000000002</v>
-      </c>
-      <c r="T63">
-        <v>-5171.864999999998</v>
-      </c>
-      <c r="U63">
-        <v>-0.13103415426482079</v>
-      </c>
-      <c r="V63">
-        <v>5.1821897353325791E-2</v>
-      </c>
-      <c r="W63" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64">
-        <v>14789.56</v>
-      </c>
-      <c r="C64">
-        <v>16723.79</v>
-      </c>
-      <c r="D64">
-        <v>20935.14</v>
-      </c>
-      <c r="E64">
-        <v>21692.57</v>
-      </c>
-      <c r="F64">
-        <v>13194.57</v>
-      </c>
-      <c r="G64">
-        <v>5</v>
-      </c>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>17467.126</v>
-      </c>
-      <c r="K64">
-        <v>0.2074</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>-2025.330851793537</v>
-      </c>
-      <c r="N64" t="s">
-        <v>94</v>
-      </c>
-      <c r="O64">
-        <v>17467.126</v>
-      </c>
-      <c r="P64">
-        <v>10580.794343465899</v>
-      </c>
-      <c r="Q64">
-        <v>17467.126</v>
-      </c>
-      <c r="R64">
-        <v>18535.264999999999</v>
-      </c>
-      <c r="S64">
-        <v>17467.126</v>
-      </c>
-      <c r="T64">
-        <v>-5340.6949999999997</v>
-      </c>
-      <c r="U64">
-        <v>-0.28813696486130619</v>
-      </c>
-      <c r="V64">
-        <v>0.11395352837981609</v>
-      </c>
-      <c r="W64" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA64" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65">
-        <v>22031.51</v>
-      </c>
-      <c r="C65">
-        <v>25632.93</v>
-      </c>
-      <c r="D65">
-        <v>22743.32</v>
-      </c>
-      <c r="E65">
-        <v>21171.27</v>
-      </c>
-      <c r="F65">
-        <v>17233.27</v>
-      </c>
-      <c r="G65">
-        <v>5</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J65">
-        <v>20820.859302179229</v>
-      </c>
-      <c r="K65">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>-675.77502354874377</v>
-      </c>
-      <c r="N65" t="s">
-        <v>96</v>
-      </c>
-      <c r="O65">
-        <v>17906.646532179231</v>
-      </c>
-      <c r="P65">
-        <v>10847.03598852641</v>
-      </c>
-      <c r="Q65">
-        <v>17906.646532179231</v>
-      </c>
-      <c r="R65">
-        <v>22894.7575</v>
-      </c>
-      <c r="S65">
-        <v>21762.46</v>
-      </c>
-      <c r="T65">
-        <v>-5661.4875000000029</v>
-      </c>
-      <c r="U65">
-        <v>-0.24728313894567361</v>
-      </c>
-      <c r="V65">
-        <v>9.7796498291219197E-2</v>
-      </c>
-      <c r="W65" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA65" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66">
-        <v>20446.810000000001</v>
-      </c>
-      <c r="C66">
-        <v>23192.18</v>
-      </c>
-      <c r="D66">
-        <v>15302.14</v>
-      </c>
-      <c r="E66">
-        <v>17381.91</v>
-      </c>
-      <c r="F66">
-        <v>12553.51</v>
-      </c>
-      <c r="G66">
-        <v>5</v>
-      </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>4.2900000000000001E-2</v>
-      </c>
-      <c r="J66">
-        <v>16834.59831271839</v>
-      </c>
-      <c r="K66">
-        <v>0.48549999999999999</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>-1372.023218097409</v>
-      </c>
-      <c r="N66" t="s">
-        <v>96</v>
-      </c>
-      <c r="O66">
-        <v>13927.162781718391</v>
-      </c>
-      <c r="P66">
-        <v>8436.4448496756013</v>
-      </c>
-      <c r="Q66">
-        <v>13927.162781718391</v>
-      </c>
-      <c r="R66">
-        <v>19080.759999999998</v>
-      </c>
-      <c r="S66">
-        <v>17775.310000000001</v>
-      </c>
-      <c r="T66">
-        <v>-6527.2500000000018</v>
-      </c>
-      <c r="U66">
-        <v>-0.3420854305593698</v>
-      </c>
-      <c r="V66">
-        <v>0.13528927757787881</v>
-      </c>
-      <c r="W66" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA66" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD66">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-high-point/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A338AB-C124-B24E-8E86-FF16318EC8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBBB8ABC-236A-3546-9949-E0D54CCD562A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3560" windowWidth="22140" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="1380" windowWidth="26380" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="110">
   <si>
     <t>Category</t>
   </si>
@@ -100,12 +100,21 @@
     <t>Elasticity Classification</t>
   </si>
   <si>
-    <t>Performance Diagnostic Assignment</t>
+    <t>Margin Risk Assessment</t>
   </si>
   <si>
     <t>Marketing Spend Efficiency</t>
   </si>
   <si>
+    <t>Expense Trend Slope</t>
+  </si>
+  <si>
+    <t>Gross Profit Trend Slope</t>
+  </si>
+  <si>
+    <t>Trend Diagnostic</t>
+  </si>
+  <si>
     <t>Ranking Priority</t>
   </si>
   <si>
@@ -115,6 +124,60 @@
     <t>Professional Liability</t>
   </si>
   <si>
+    <t>Total Payroll Expense</t>
+  </si>
+  <si>
+    <t>Midlevel (PC)</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Occupational Health (HPOH)</t>
+  </si>
+  <si>
+    <t>Center Admin</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Royalties</t>
+  </si>
+  <si>
+    <t>Repairs &amp; Maintenance - Office</t>
+  </si>
+  <si>
+    <t>Chart Billing</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Total Marketing &amp; Advertising</t>
+  </si>
+  <si>
+    <t>Advertising &amp; Marketing Fund</t>
+  </si>
+  <si>
+    <t>Medical Billing</t>
+  </si>
+  <si>
+    <t>Total Prof. Operating Fees</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Credit Card Fees</t>
+  </si>
+  <si>
     <t>Medical Direction and Oversight (PC)</t>
   </si>
   <si>
@@ -166,60 +229,6 @@
     <t>Total Supplies - Medical</t>
   </si>
   <si>
-    <t>Total Payroll Expense</t>
-  </si>
-  <si>
-    <t>Midlevel (PC)</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>Clinical</t>
-  </si>
-  <si>
-    <t>Occupational Health (HPOH)</t>
-  </si>
-  <si>
-    <t>Center Admin</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Royalties</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>Advertising &amp; Marketing Fund</t>
-  </si>
-  <si>
-    <t>Medical Billing</t>
-  </si>
-  <si>
-    <t>Total Prof. Operating Fees</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Repairs &amp; Maintenance - Office</t>
-  </si>
-  <si>
-    <t>Chart Billing</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Total Marketing &amp; Advertising</t>
-  </si>
-  <si>
-    <t>Credit Card Fees</t>
-  </si>
-  <si>
     <t>Radiologic Overreads/Storage</t>
   </si>
   <si>
@@ -301,28 +310,46 @@
     <t>One-time</t>
   </si>
   <si>
+    <t>Costs Flat Despite Profit Decline</t>
+  </si>
+  <si>
+    <t>Expenses Grew Even Though Profit Declined</t>
+  </si>
+  <si>
     <t>Costs Declined Along With Profit</t>
   </si>
   <si>
-    <t>Expenses Grew Even Though Profit Declined</t>
+    <t>Investigate - Potential Risk</t>
+  </si>
+  <si>
+    <t>Stable - No Action</t>
   </si>
   <si>
     <t>Below Threshold</t>
   </si>
   <si>
-    <t>Fixed or unresponsive</t>
-  </si>
-  <si>
-    <t>Neutral – Keep Watching</t>
-  </si>
-  <si>
-    <t>Margin Risk – Growth with Flat or Declining Profit</t>
-  </si>
-  <si>
-    <t>Margin Risk – Continual Growth</t>
+    <t>Fixed or Consistent</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Margin Risk</t>
+  </si>
+  <si>
+    <t>Margin Improvement</t>
   </si>
   <si>
     <t>Under-Leveraged</t>
+  </si>
+  <si>
+    <t>Expenses trending flat</t>
+  </si>
+  <si>
+    <t>Expenses trending up</t>
+  </si>
+  <si>
+    <t>Expenses trending down</t>
   </si>
 </sst>
 </file>
@@ -690,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U46" workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -719,14 +746,17 @@
     <col min="22" max="22" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,10 +844,19 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -856,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O2">
         <v>1000</v>
@@ -883,24 +922,33 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1649</v>
@@ -939,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3">
         <v>1649</v>
@@ -966,39 +1014,48 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>3021.69</v>
+        <v>82282.25</v>
       </c>
       <c r="C4">
-        <v>3003.13</v>
+        <v>78744.61</v>
       </c>
       <c r="D4">
-        <v>3003.11</v>
+        <v>78392.259999999995</v>
       </c>
       <c r="E4">
-        <v>3003.14</v>
+        <v>74532.03</v>
       </c>
       <c r="F4">
-        <v>3003.14</v>
+        <v>111342.99</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1010,161 +1067,179 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3006.8420000000001</v>
+        <v>85058.828000000009</v>
       </c>
       <c r="K4">
-        <v>6.9699999999999998E-2</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-6.8282794262322568</v>
+        <v>7794.1608683763043</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O4">
-        <v>3006.8420000000001</v>
+        <v>85058.828000000009</v>
       </c>
       <c r="P4">
-        <v>1787.866640946989</v>
+        <v>50575.933520699691</v>
       </c>
       <c r="Q4">
-        <v>3006.8420000000001</v>
+        <v>85058.828000000009</v>
       </c>
       <c r="R4">
-        <v>3007.7674999999999</v>
+        <v>78487.787500000006</v>
       </c>
       <c r="S4">
-        <v>3006.8420000000001</v>
+        <v>85058.828000000009</v>
       </c>
       <c r="T4">
-        <v>-4.6275000000000546</v>
+        <v>32855.202499999999</v>
       </c>
       <c r="U4">
-        <v>-1.5385165242991869E-3</v>
+        <v>0.41860273485222138</v>
       </c>
       <c r="V4">
-        <v>2.3039490413961409E-4</v>
+        <v>-6.2686318570929364E-2</v>
       </c>
       <c r="W4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC4">
+        <v>5390.89</v>
+      </c>
+      <c r="AD4">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>29290.35</v>
+      </c>
+      <c r="C5">
+        <v>29269.3</v>
+      </c>
+      <c r="D5">
+        <v>28557.71</v>
+      </c>
+      <c r="E5">
+        <v>28483.06</v>
+      </c>
+      <c r="F5">
+        <v>42283.27</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>31576.73799999999</v>
+      </c>
+      <c r="K5">
+        <v>0.6462</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3830.9017064050349</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5">
+        <v>31576.73799999999</v>
+      </c>
+      <c r="P5">
+        <v>18775.511483517639</v>
+      </c>
+      <c r="Q5">
+        <v>31576.73799999999</v>
+      </c>
+      <c r="R5">
+        <v>28900.105</v>
+      </c>
+      <c r="S5">
+        <v>31576.73799999999</v>
+      </c>
+      <c r="T5">
+        <v>13383.165000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.46308361163393708</v>
+      </c>
+      <c r="V5">
+        <v>-6.9347389271380594E-2</v>
+      </c>
+      <c r="W5" t="s">
         <v>97</v>
       </c>
-      <c r="AC4">
-        <v>3</v>
+      <c r="Y5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC5">
+        <v>2519.96</v>
+      </c>
+      <c r="AD5">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>2275</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2650</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1100</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1205</v>
-      </c>
-      <c r="K5">
-        <v>0.26419999999999999</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>-1013.814507566049</v>
-      </c>
-      <c r="N5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5">
-        <v>1205</v>
-      </c>
-      <c r="P5">
-        <v>716.4923538852795</v>
-      </c>
-      <c r="Q5">
-        <v>1205</v>
-      </c>
-      <c r="R5">
-        <v>1231.25</v>
-      </c>
-      <c r="S5">
-        <v>1205</v>
-      </c>
-      <c r="T5">
-        <v>-131.25</v>
-      </c>
-      <c r="U5">
-        <v>-0.1065989847715736</v>
-      </c>
-      <c r="V5">
-        <v>1.596334032812172E-2</v>
-      </c>
-      <c r="W5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>965.31</v>
+        <v>13909</v>
       </c>
       <c r="C6">
-        <v>953.89</v>
+        <v>12754.26</v>
       </c>
       <c r="D6">
-        <v>927.88</v>
+        <v>11935.16</v>
       </c>
       <c r="E6">
-        <v>715.37</v>
+        <v>12667.35</v>
       </c>
       <c r="F6">
-        <v>733.02</v>
+        <v>19998.23</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1176,78 +1251,87 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>859.09399999999982</v>
+        <v>14252.8</v>
       </c>
       <c r="K6">
-        <v>4.0800000000000003E-2</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-90.319757581389013</v>
+        <v>1829.7792136220271</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6">
-        <v>859.09399999999982</v>
+        <v>14252.8</v>
       </c>
       <c r="P6">
-        <v>510.81683175827402</v>
+        <v>8474.7072377229142</v>
       </c>
       <c r="Q6">
-        <v>859.09399999999982</v>
+        <v>14252.8</v>
       </c>
       <c r="R6">
-        <v>890.61249999999995</v>
+        <v>12816.442499999999</v>
       </c>
       <c r="S6">
-        <v>859.09399999999982</v>
+        <v>14252.8</v>
       </c>
       <c r="T6">
-        <v>-157.5925</v>
+        <v>7181.7875000000004</v>
       </c>
       <c r="U6">
-        <v>-0.17694844839927579</v>
+        <v>0.56035733004693</v>
       </c>
       <c r="V6">
-        <v>2.6498266455197751E-2</v>
+        <v>-8.3914258508793541E-2</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC6">
+        <v>1209.155</v>
+      </c>
+      <c r="AD6">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>2023.53</v>
+        <v>13553.66</v>
       </c>
       <c r="C7">
-        <v>1404.47</v>
+        <v>14436.83</v>
       </c>
       <c r="D7">
-        <v>1542.65</v>
+        <v>12594.99</v>
       </c>
       <c r="E7">
-        <v>2452.27</v>
+        <v>11632.55</v>
       </c>
       <c r="F7">
-        <v>1660.64</v>
+        <v>18234.900000000001</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1259,78 +1343,87 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1816.712</v>
+        <v>14090.585999999999</v>
       </c>
       <c r="K7">
-        <v>2.41E-2</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-62.335264249584952</v>
+        <v>1464.4797866450431</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O7">
-        <v>1816.712</v>
+        <v>14090.585999999999</v>
       </c>
       <c r="P7">
-        <v>1080.215981088493</v>
+        <v>8378.254880301216</v>
       </c>
       <c r="Q7">
-        <v>1816.712</v>
+        <v>14090.585999999999</v>
       </c>
       <c r="R7">
-        <v>1855.73</v>
+        <v>13054.5075</v>
       </c>
       <c r="S7">
-        <v>1816.712</v>
+        <v>14090.585999999999</v>
       </c>
       <c r="T7">
-        <v>-195.08999999999989</v>
+        <v>5180.3925000000017</v>
       </c>
       <c r="U7">
-        <v>-0.1051284400209082</v>
+        <v>0.39682787726767949</v>
       </c>
       <c r="V7">
-        <v>1.574312428785728E-2</v>
+        <v>-5.9425504568213668E-2</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC7">
+        <v>655.82000000000016</v>
+      </c>
+      <c r="AD7">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>816.03</v>
+        <v>5486.17</v>
       </c>
       <c r="C8">
-        <v>2340.64</v>
+        <v>4993.34</v>
       </c>
       <c r="D8">
-        <v>1562.31</v>
+        <v>5359.6</v>
       </c>
       <c r="E8">
-        <v>926.62</v>
+        <v>5267.36</v>
       </c>
       <c r="F8">
-        <v>723.72</v>
+        <v>8350.92</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1339,81 +1432,90 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.6299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1313.339602613207</v>
+        <v>5891.4780000000001</v>
       </c>
       <c r="K8">
-        <v>0.41889999999999999</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>78.340008064068002</v>
+        <v>759.03357867714476</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O8">
-        <v>644.35125361320661</v>
+        <v>5891.4780000000001</v>
       </c>
       <c r="P8">
-        <v>383.1309099006283</v>
+        <v>3503.069659820198</v>
       </c>
       <c r="Q8">
-        <v>644.35125361320661</v>
+        <v>5891.4780000000001</v>
       </c>
       <c r="R8">
-        <v>1411.4</v>
+        <v>5276.6175000000003</v>
       </c>
       <c r="S8">
-        <v>1273.864</v>
+        <v>5891.4780000000001</v>
       </c>
       <c r="T8">
-        <v>-687.67999999999984</v>
+        <v>3074.3024999999998</v>
       </c>
       <c r="U8">
-        <v>-0.48723253507156011</v>
+        <v>0.58262750711037892</v>
       </c>
       <c r="V8">
-        <v>7.2963722806062906E-2</v>
+        <v>-8.7249247264954449E-2</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC8">
+        <v>600.35199999999986</v>
+      </c>
+      <c r="AD8">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>831.55</v>
+        <v>9553.36</v>
       </c>
       <c r="C9">
-        <v>1633.48</v>
+        <v>8677.93</v>
       </c>
       <c r="D9">
-        <v>232.4</v>
+        <v>9227.75</v>
       </c>
       <c r="E9">
-        <v>1101.4000000000001</v>
+        <v>9130.9500000000007</v>
       </c>
       <c r="F9">
-        <v>227</v>
+        <v>11925.55</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1422,81 +1524,90 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.7299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>847.04418071254258</v>
+        <v>9703.108000000002</v>
       </c>
       <c r="K9">
-        <v>0.60840000000000005</v>
+        <v>0.81610000000000005</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>88.569024225948738</v>
+        <v>571.64495521446406</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O9">
-        <v>137.0136017125426</v>
+        <v>9703.108000000002</v>
       </c>
       <c r="P9">
-        <v>81.468214112298597</v>
+        <v>5769.4628140440564</v>
       </c>
       <c r="Q9">
-        <v>137.0136017125426</v>
+        <v>9703.108000000002</v>
       </c>
       <c r="R9">
-        <v>949.70749999999998</v>
+        <v>9147.4975000000013</v>
       </c>
       <c r="S9">
-        <v>805.16599999999994</v>
+        <v>9703.108000000002</v>
       </c>
       <c r="T9">
-        <v>-722.70749999999998</v>
+        <v>2778.052499999998</v>
       </c>
       <c r="U9">
-        <v>-0.76097903828283975</v>
+        <v>0.30369535493177208</v>
       </c>
       <c r="V9">
-        <v>0.11395762723919629</v>
+        <v>-4.547878497374204E-2</v>
       </c>
       <c r="W9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC9">
+        <v>519.73999999999978</v>
+      </c>
+      <c r="AD9">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>9410.35</v>
+        <v>6402.34</v>
       </c>
       <c r="C10">
-        <v>7436.21</v>
+        <v>6170.68</v>
       </c>
       <c r="D10">
-        <v>8762.01</v>
+        <v>5700.57</v>
       </c>
       <c r="E10">
-        <v>8089.91</v>
+        <v>5353.1900000000014</v>
       </c>
       <c r="F10">
-        <v>7684.49</v>
+        <v>7959.6900000000014</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1508,244 +1619,271 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8276.5939999999991</v>
+        <v>6317.2940000000008</v>
       </c>
       <c r="K10">
-        <v>4.2700000000000002E-2</v>
+        <v>0.7127</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-830.21600334558207</v>
+        <v>432.96948018167768</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10">
-        <v>8276.5939999999991</v>
+        <v>6317.2940000000008</v>
       </c>
       <c r="P10">
-        <v>4921.2583545334282</v>
+        <v>3756.259625099879</v>
       </c>
       <c r="Q10">
-        <v>8276.5939999999991</v>
+        <v>6317.2940000000008</v>
       </c>
       <c r="R10">
-        <v>8424.619999999999</v>
+        <v>5906.6950000000006</v>
       </c>
       <c r="S10">
-        <v>8276.5939999999991</v>
+        <v>6317.2940000000008</v>
       </c>
       <c r="T10">
-        <v>-740.1299999999992</v>
+        <v>2052.9950000000008</v>
       </c>
       <c r="U10">
-        <v>-8.785322067938961E-2</v>
+        <v>0.34757084968836222</v>
       </c>
       <c r="V10">
-        <v>1.3156137121116931E-2</v>
+        <v>-5.2049198907467807E-2</v>
       </c>
       <c r="W10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC10">
+        <v>229.7210000000004</v>
+      </c>
+      <c r="AD10">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>11640.78</v>
+      </c>
+      <c r="C11">
+        <v>9295.3700000000008</v>
+      </c>
+      <c r="D11">
+        <v>9544.57</v>
+      </c>
+      <c r="E11">
+        <v>9296.2800000000007</v>
+      </c>
+      <c r="F11">
+        <v>11750.2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10305.44</v>
+      </c>
+      <c r="K11">
+        <v>0.81489999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>-194.96759166532499</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11">
+        <v>10305.44</v>
+      </c>
+      <c r="P11">
+        <v>6127.6090982767764</v>
+      </c>
+      <c r="Q11">
+        <v>10305.44</v>
+      </c>
+      <c r="R11">
+        <v>9944.25</v>
+      </c>
+      <c r="S11">
+        <v>10305.44</v>
+      </c>
+      <c r="T11">
+        <v>1805.950000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.18160746159841121</v>
+      </c>
+      <c r="V11">
+        <v>-2.7195959903689611E-2</v>
+      </c>
+      <c r="W11" t="s">
         <v>97</v>
       </c>
-      <c r="AC10">
-        <v>9</v>
+      <c r="Y11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC11">
+        <v>21.974999999999969</v>
+      </c>
+      <c r="AD11">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF11">
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>2601.5</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="K11">
-        <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>-965.13148093886116</v>
-      </c>
-      <c r="N11" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="P11">
-        <v>356.93805812226827</v>
-      </c>
-      <c r="Q11">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="R11">
-        <v>750.375</v>
-      </c>
-      <c r="S11">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="T11">
-        <v>-750.375</v>
-      </c>
-      <c r="U11">
-        <v>-1</v>
-      </c>
-      <c r="V11">
-        <v>0.14975133545904659</v>
-      </c>
-      <c r="W11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA11" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>529.64</v>
+      </c>
+      <c r="C12">
+        <v>550.63</v>
+      </c>
+      <c r="D12">
+        <v>682.63</v>
+      </c>
+      <c r="E12">
+        <v>516.33000000000004</v>
+      </c>
+      <c r="F12">
+        <v>1643.02</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>784.45</v>
+      </c>
+      <c r="K12">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>297.56188249817387</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12">
+        <v>784.45</v>
+      </c>
+      <c r="P12">
+        <v>466.43354938199798</v>
+      </c>
+      <c r="Q12">
+        <v>784.45</v>
+      </c>
+      <c r="R12">
+        <v>569.8075</v>
+      </c>
+      <c r="S12">
+        <v>784.45</v>
+      </c>
+      <c r="T12">
+        <v>1073.2125000000001</v>
+      </c>
+      <c r="U12">
+        <v>1.883465029856574</v>
+      </c>
+      <c r="V12">
+        <v>-0.28205140351143521</v>
+      </c>
+      <c r="W12" t="s">
         <v>97</v>
       </c>
-      <c r="AC11">
-        <v>10</v>
+      <c r="Y12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC12">
+        <v>219.24600000000001</v>
+      </c>
+      <c r="AD12">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF12">
+        <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>2601.5</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="K12">
-        <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>-965.13148093886116</v>
-      </c>
-      <c r="N12" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="P12">
-        <v>356.93805812226827</v>
-      </c>
-      <c r="Q12">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="R12">
-        <v>750.375</v>
-      </c>
-      <c r="S12">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="T12">
-        <v>-750.375</v>
-      </c>
-      <c r="U12">
-        <v>-1</v>
-      </c>
-      <c r="V12">
-        <v>0.14975133545904659</v>
-      </c>
-      <c r="W12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>582.52</v>
+        <v>3176.92</v>
       </c>
       <c r="C13">
-        <v>2337.48</v>
+        <v>3170.52</v>
       </c>
       <c r="D13">
-        <v>1827.51</v>
+        <v>3176.92</v>
       </c>
       <c r="E13">
-        <v>1604.23</v>
+        <v>3484.52</v>
       </c>
       <c r="F13">
-        <v>823.39</v>
+        <v>3820.82</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1754,81 +1892,90 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.1499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1487.188210555727</v>
+        <v>3365.94</v>
       </c>
       <c r="K13">
-        <v>0.64639999999999997</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>218.82922381846811</v>
+        <v>221.01342847521479</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O13">
-        <v>604.7802655557274</v>
+        <v>3365.94</v>
       </c>
       <c r="P13">
-        <v>359.60202161940879</v>
+        <v>2001.3861192005129</v>
       </c>
       <c r="Q13">
-        <v>604.7802655557274</v>
+        <v>3365.94</v>
       </c>
       <c r="R13">
-        <v>1587.9349999999999</v>
+        <v>3252.22</v>
       </c>
       <c r="S13">
-        <v>1435.0260000000001</v>
+        <v>3365.94</v>
       </c>
       <c r="T13">
-        <v>-764.54499999999996</v>
+        <v>568.59999999999991</v>
       </c>
       <c r="U13">
-        <v>-0.48147121891009392</v>
+        <v>0.1748344207956411</v>
       </c>
       <c r="V13">
-        <v>7.2100958016881558E-2</v>
+        <v>-2.6181687998356171E-2</v>
       </c>
       <c r="W13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC13">
+        <v>160.18</v>
+      </c>
+      <c r="AD13">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>7572.32</v>
+        <v>1947.58</v>
       </c>
       <c r="C14">
-        <v>5602.3499999999995</v>
+        <v>2052</v>
       </c>
       <c r="D14">
-        <v>6934.7599999999993</v>
+        <v>1791.44</v>
       </c>
       <c r="E14">
-        <v>6264.1399999999994</v>
+        <v>1925</v>
       </c>
       <c r="F14">
-        <v>5781.8499999999995</v>
+        <v>2481.9</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1840,78 +1987,87 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6431.0839999999989</v>
+        <v>2039.5840000000001</v>
       </c>
       <c r="K14">
-        <v>2.92E-2</v>
+        <v>0.4194</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-849.06255213638269</v>
+        <v>198.40655490348809</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O14">
-        <v>6431.0839999999989</v>
+        <v>2039.5840000000001</v>
       </c>
       <c r="P14">
-        <v>3823.9190980862718</v>
+        <v>1212.735552785688</v>
       </c>
       <c r="Q14">
-        <v>6431.0839999999989</v>
+        <v>2039.5840000000001</v>
       </c>
       <c r="R14">
-        <v>6593.392499999999</v>
+        <v>1929.0050000000001</v>
       </c>
       <c r="S14">
-        <v>6431.0839999999989</v>
+        <v>2039.5840000000001</v>
       </c>
       <c r="T14">
-        <v>-811.54249999999956</v>
+        <v>552.89499999999998</v>
       </c>
       <c r="U14">
-        <v>-0.1230842089258299</v>
+        <v>0.2866218594560408</v>
       </c>
       <c r="V14">
-        <v>1.8432024660563331E-2</v>
+        <v>-4.2922006225297293E-2</v>
       </c>
       <c r="W14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC14">
+        <v>94.164000000000016</v>
+      </c>
+      <c r="AD14">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>14612.64</v>
+        <v>1845.07</v>
       </c>
       <c r="C15">
-        <v>20127</v>
+        <v>253.92</v>
       </c>
       <c r="D15">
-        <v>14612.64</v>
+        <v>1883.84</v>
       </c>
       <c r="E15">
-        <v>14832.02</v>
+        <v>1945.16</v>
       </c>
       <c r="F15">
-        <v>14832.02</v>
+        <v>1977.21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1920,81 +2076,90 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.9200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>15922.69268694548</v>
+        <v>1581.04</v>
       </c>
       <c r="K15">
-        <v>0.30359999999999998</v>
+        <v>0.31640000000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>930.15876222691986</v>
+        <v>-200.4648604730196</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O15">
-        <v>13903.41497094548</v>
+        <v>1581.04</v>
       </c>
       <c r="P15">
-        <v>8266.9630867855285</v>
+        <v>940.08553625459115</v>
       </c>
       <c r="Q15">
-        <v>13903.41497094548</v>
+        <v>1581.04</v>
       </c>
       <c r="R15">
-        <v>16046.075000000001</v>
+        <v>1481.9974999999999</v>
       </c>
       <c r="S15">
-        <v>15803.263999999999</v>
+        <v>1581.04</v>
       </c>
       <c r="T15">
-        <v>-1214.0550000000001</v>
+        <v>495.21250000000009</v>
       </c>
       <c r="U15">
-        <v>-7.5660558734768485E-2</v>
+        <v>0.33415204816472371</v>
       </c>
       <c r="V15">
-        <v>1.1330269712109219E-2</v>
+        <v>-5.0039715459043059E-2</v>
       </c>
       <c r="W15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC15">
+        <v>195.55199999999999</v>
+      </c>
+      <c r="AD15">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>8362.8700000000008</v>
+        <v>1845.07</v>
       </c>
       <c r="C16">
-        <v>450.68</v>
+        <v>253.92</v>
       </c>
       <c r="D16">
-        <v>4200.68</v>
+        <v>1883.84</v>
       </c>
       <c r="E16">
-        <v>2468.12</v>
+        <v>1945.16</v>
       </c>
       <c r="F16">
-        <v>2420.56</v>
+        <v>1977.21</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2006,78 +2171,90 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3580.5820000000008</v>
+        <v>1581.04</v>
       </c>
       <c r="K16">
-        <v>0.15160000000000001</v>
+        <v>0.31640000000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-2817.5833189184409</v>
+        <v>-200.4648604730196</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O16">
-        <v>3580.5820000000008</v>
+        <v>1581.04</v>
       </c>
       <c r="P16">
-        <v>2129.0121373105908</v>
+        <v>940.08553625459115</v>
       </c>
       <c r="Q16">
-        <v>3580.5820000000008</v>
+        <v>1581.04</v>
       </c>
       <c r="R16">
-        <v>3870.587500000001</v>
+        <v>1481.9974999999999</v>
       </c>
       <c r="S16">
-        <v>3580.5820000000008</v>
+        <v>1581.04</v>
       </c>
       <c r="T16">
-        <v>-1450.0275000000011</v>
+        <v>495.21250000000009</v>
       </c>
       <c r="U16">
-        <v>-0.37462723682128368</v>
+        <v>0.33415204816472371</v>
       </c>
       <c r="V16">
-        <v>5.610092901331977E-2</v>
+        <v>-5.0039715459043059E-2</v>
       </c>
       <c r="W16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA16" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>106</v>
       </c>
       <c r="AC16">
+        <v>195.55199999999999</v>
+      </c>
+      <c r="AD16">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>36184.050000000003</v>
+        <v>1940.14</v>
       </c>
       <c r="C17">
-        <v>35497.089999999997</v>
+        <v>1549.23</v>
       </c>
       <c r="D17">
-        <v>34366.9</v>
+        <v>1590.76</v>
       </c>
       <c r="E17">
-        <v>30653.21</v>
+        <v>1549.39</v>
       </c>
       <c r="F17">
-        <v>32545.88</v>
+        <v>1958.36</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -2089,161 +2266,182 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>33849.425999999999</v>
+        <v>1717.576</v>
       </c>
       <c r="K17">
-        <v>1.8E-3</v>
+        <v>0.81489999999999996</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-1441.870677417453</v>
+        <v>-32.498542531567857</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O17">
-        <v>33849.425999999999</v>
+        <v>1717.576</v>
       </c>
       <c r="P17">
-        <v>20126.85054971417</v>
+        <v>1021.2697686447</v>
       </c>
       <c r="Q17">
-        <v>33849.425999999999</v>
+        <v>1717.576</v>
       </c>
       <c r="R17">
-        <v>34175.3125</v>
+        <v>1657.38</v>
       </c>
       <c r="S17">
-        <v>33849.425999999999</v>
+        <v>1717.576</v>
       </c>
       <c r="T17">
-        <v>-1629.432499999999</v>
+        <v>300.97999999999979</v>
       </c>
       <c r="U17">
-        <v>-4.7678642294785127E-2</v>
+        <v>0.18159987450071791</v>
       </c>
       <c r="V17">
-        <v>7.1399403565182576E-3</v>
+        <v>-2.7194823725677771E-2</v>
       </c>
       <c r="W17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC17">
+        <v>3.659999999999938</v>
+      </c>
+      <c r="AD17">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>5064.29</v>
+      </c>
+      <c r="C18">
+        <v>4463.17</v>
+      </c>
+      <c r="D18">
+        <v>4952.3900000000003</v>
+      </c>
+      <c r="E18">
+        <v>4656.1000000000004</v>
+      </c>
+      <c r="F18">
+        <v>5062.8599999999997</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4839.7619999999997</v>
+      </c>
+      <c r="K18">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>-116.75196925916229</v>
+      </c>
+      <c r="N18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18">
+        <v>4839.7619999999997</v>
+      </c>
+      <c r="P18">
+        <v>2877.719890144836</v>
+      </c>
+      <c r="Q18">
+        <v>4839.7619999999997</v>
+      </c>
+      <c r="R18">
+        <v>4783.9874999999993</v>
+      </c>
+      <c r="S18">
+        <v>4839.7619999999997</v>
+      </c>
+      <c r="T18">
+        <v>278.8725000000004</v>
+      </c>
+      <c r="U18">
+        <v>5.8292898967649977E-2</v>
+      </c>
+      <c r="V18">
+        <v>-8.7294394681848679E-3</v>
+      </c>
+      <c r="W18" t="s">
         <v>97</v>
       </c>
-      <c r="AC17">
-        <v>16</v>
+      <c r="Y18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18">
+        <v>19.006999999999959</v>
+      </c>
+      <c r="AD18">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF18">
+        <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1446.88</v>
-      </c>
-      <c r="D18">
-        <v>2580.5700000000002</v>
-      </c>
-      <c r="E18">
-        <v>7883.53</v>
-      </c>
-      <c r="F18">
-        <v>846.43</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="J18">
-        <v>2712.8241718372878</v>
-      </c>
-      <c r="K18">
-        <v>0.33210000000000001</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>863.64785797600473</v>
-      </c>
-      <c r="N18" t="s">
-        <v>90</v>
-      </c>
-      <c r="O18">
-        <v>-16.48412316271197</v>
-      </c>
-      <c r="P18">
-        <v>-9.8014507938475983</v>
-      </c>
-      <c r="Q18">
-        <v>-16.48412316271197</v>
-      </c>
-      <c r="R18">
-        <v>2977.7449999999999</v>
-      </c>
-      <c r="S18">
-        <v>2551.482</v>
-      </c>
-      <c r="T18">
-        <v>-2131.3150000000001</v>
-      </c>
-      <c r="U18">
-        <v>-0.71574799050959703</v>
-      </c>
-      <c r="V18">
-        <v>0.1071842174309412</v>
-      </c>
-      <c r="W18" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>28381.119999999999</v>
+        <v>5296.69</v>
       </c>
       <c r="C19">
-        <v>4645.82</v>
+        <v>3396.66</v>
       </c>
       <c r="D19">
-        <v>7182.37</v>
+        <v>5704.31</v>
       </c>
       <c r="E19">
-        <v>5083.28</v>
+        <v>4265.41</v>
       </c>
       <c r="F19">
-        <v>5458.57</v>
+        <v>4928.1400000000003</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2255,78 +2453,87 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10150.232</v>
+        <v>4718.2420000000002</v>
       </c>
       <c r="K19">
-        <v>8.43E-2</v>
+        <v>0.37990000000000002</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-8931.7748296067566</v>
+        <v>-588.87811311464247</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O19">
-        <v>10150.232</v>
+        <v>4718.2420000000002</v>
       </c>
       <c r="P19">
-        <v>6035.3225046984971</v>
+        <v>2805.464163303227</v>
       </c>
       <c r="Q19">
-        <v>10150.232</v>
+        <v>4718.2420000000002</v>
       </c>
       <c r="R19">
-        <v>11323.147499999999</v>
+        <v>4665.7674999999999</v>
       </c>
       <c r="S19">
-        <v>10150.232</v>
+        <v>4718.2420000000002</v>
       </c>
       <c r="T19">
-        <v>-5864.5775000000012</v>
+        <v>262.3725000000004</v>
       </c>
       <c r="U19">
-        <v>-0.51792820856568378</v>
+        <v>5.623351356448867E-2</v>
       </c>
       <c r="V19">
-        <v>7.7560440904622802E-2</v>
+        <v>-8.4210437538365934E-3</v>
       </c>
       <c r="W19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC19">
+        <v>13.165000000000131</v>
+      </c>
+      <c r="AD19">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>28963.64</v>
+        <v>512.46</v>
       </c>
       <c r="C20">
-        <v>8430.18</v>
+        <v>512.46</v>
       </c>
       <c r="D20">
-        <v>11590.45</v>
+        <v>732.48</v>
       </c>
       <c r="E20">
-        <v>14571.04</v>
+        <v>568.79999999999995</v>
       </c>
       <c r="F20">
-        <v>7128.39</v>
+        <v>732.45</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2338,78 +2545,87 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>14136.74</v>
+        <v>611.7299999999999</v>
       </c>
       <c r="K20">
-        <v>4.4999999999999997E-3</v>
+        <v>0.32490000000000002</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-7849.2977478122884</v>
+        <v>29.182594079365121</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O20">
-        <v>14136.74</v>
+        <v>611.7299999999999</v>
       </c>
       <c r="P20">
-        <v>8405.6980239536824</v>
+        <v>363.7343299935618</v>
       </c>
       <c r="Q20">
-        <v>14136.74</v>
+        <v>611.7299999999999</v>
       </c>
       <c r="R20">
-        <v>15888.827499999999</v>
+        <v>581.54999999999995</v>
       </c>
       <c r="S20">
-        <v>14136.74</v>
+        <v>611.7299999999999</v>
       </c>
       <c r="T20">
-        <v>-8760.4375</v>
+        <v>150.90000000000009</v>
       </c>
       <c r="U20">
-        <v>-0.55135833654182476</v>
+        <v>0.25947897859169478</v>
       </c>
       <c r="V20">
-        <v>8.2566647213616742E-2</v>
+        <v>-3.8857323567655672E-2</v>
       </c>
       <c r="W20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AC20">
+        <v>49.631999999999998</v>
+      </c>
+      <c r="AD20">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>82282.25</v>
+        <v>1816.76</v>
       </c>
       <c r="C21">
-        <v>78744.61</v>
+        <v>1157.78</v>
       </c>
       <c r="D21">
-        <v>78392.259999999995</v>
+        <v>1166.5999999999999</v>
       </c>
       <c r="E21">
-        <v>74532.03</v>
+        <v>1399.59</v>
       </c>
       <c r="F21">
-        <v>111342.99</v>
+        <v>1409.51</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2421,78 +2637,87 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>85058.828000000009</v>
+        <v>1390.048</v>
       </c>
       <c r="K21">
-        <v>0.75219999999999998</v>
+        <v>0.1835</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>7794.1608683763043</v>
+        <v>-144.02117890248431</v>
       </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O21">
-        <v>85058.828000000009</v>
+        <v>1390.048</v>
       </c>
       <c r="P21">
-        <v>50575.933520699691</v>
+        <v>826.52179546350624</v>
       </c>
       <c r="Q21">
-        <v>85058.828000000009</v>
+        <v>1390.048</v>
       </c>
       <c r="R21">
-        <v>78487.787500000006</v>
+        <v>1385.1824999999999</v>
       </c>
       <c r="S21">
-        <v>85058.828000000009</v>
+        <v>1390.048</v>
       </c>
       <c r="T21">
-        <v>32855.202499999999</v>
+        <v>24.3275000000001</v>
       </c>
       <c r="U21">
-        <v>0.41860273485222138</v>
+        <v>1.7562667735118009E-2</v>
       </c>
       <c r="V21">
-        <v>-6.2686318570929364E-2</v>
+        <v>-2.6300329475574319E-3</v>
       </c>
       <c r="W21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC21">
+        <v>-57.269000000000027</v>
+      </c>
+      <c r="AD21">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>29290.35</v>
+        <v>3021.69</v>
       </c>
       <c r="C22">
-        <v>29269.3</v>
+        <v>3003.13</v>
       </c>
       <c r="D22">
-        <v>28557.71</v>
+        <v>3003.11</v>
       </c>
       <c r="E22">
-        <v>28483.06</v>
+        <v>3003.14</v>
       </c>
       <c r="F22">
-        <v>42283.27</v>
+        <v>3003.14</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2504,161 +2729,179 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>31576.73799999999</v>
+        <v>3006.8420000000001</v>
       </c>
       <c r="K22">
-        <v>0.6462</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3830.9017064050349</v>
+        <v>-6.8282794262322568</v>
       </c>
       <c r="N22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O22">
-        <v>31576.73799999999</v>
+        <v>3006.8420000000001</v>
       </c>
       <c r="P22">
-        <v>18775.511483517639</v>
+        <v>1787.866640946989</v>
       </c>
       <c r="Q22">
-        <v>31576.73799999999</v>
+        <v>3006.8420000000001</v>
       </c>
       <c r="R22">
-        <v>28900.105</v>
+        <v>3007.7674999999999</v>
       </c>
       <c r="S22">
-        <v>31576.73799999999</v>
+        <v>3006.8420000000001</v>
       </c>
       <c r="T22">
-        <v>13383.165000000001</v>
+        <v>-4.6275000000000546</v>
       </c>
       <c r="U22">
-        <v>0.46308361163393708</v>
+        <v>-1.5385165242991869E-3</v>
       </c>
       <c r="V22">
-        <v>-6.9347389271380594E-2</v>
+        <v>2.3039490413961409E-4</v>
       </c>
       <c r="W22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y22" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC22">
+        <v>-3.70900000000006</v>
+      </c>
+      <c r="AD22">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>2275</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2650</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1100</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1205</v>
+      </c>
+      <c r="K23">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>-1013.814507566049</v>
+      </c>
+      <c r="N23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23">
+        <v>1205</v>
+      </c>
+      <c r="P23">
+        <v>716.4923538852795</v>
+      </c>
+      <c r="Q23">
+        <v>1205</v>
+      </c>
+      <c r="R23">
+        <v>1231.25</v>
+      </c>
+      <c r="S23">
+        <v>1205</v>
+      </c>
+      <c r="T23">
+        <v>-131.25</v>
+      </c>
+      <c r="U23">
+        <v>-0.1065989847715736</v>
+      </c>
+      <c r="V23">
+        <v>1.596334032812172E-2</v>
+      </c>
+      <c r="W23" t="s">
         <v>98</v>
       </c>
-      <c r="AC22">
-        <v>21</v>
+      <c r="Y23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC23">
+        <v>-235.00000000000011</v>
+      </c>
+      <c r="AD23">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF23">
+        <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>13909</v>
-      </c>
-      <c r="C23">
-        <v>12754.26</v>
-      </c>
-      <c r="D23">
-        <v>11935.16</v>
-      </c>
-      <c r="E23">
-        <v>12667.35</v>
-      </c>
-      <c r="F23">
-        <v>19998.23</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>14252.8</v>
-      </c>
-      <c r="K23">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1829.7792136220271</v>
-      </c>
-      <c r="N23" t="s">
-        <v>89</v>
-      </c>
-      <c r="O23">
-        <v>14252.8</v>
-      </c>
-      <c r="P23">
-        <v>8474.7072377229142</v>
-      </c>
-      <c r="Q23">
-        <v>14252.8</v>
-      </c>
-      <c r="R23">
-        <v>12816.442499999999</v>
-      </c>
-      <c r="S23">
-        <v>14252.8</v>
-      </c>
-      <c r="T23">
-        <v>7181.7875000000004</v>
-      </c>
-      <c r="U23">
-        <v>0.56035733004693</v>
-      </c>
-      <c r="V23">
-        <v>-8.3914258508793541E-2</v>
-      </c>
-      <c r="W23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B24">
-        <v>13553.66</v>
+        <v>965.31</v>
       </c>
       <c r="C24">
-        <v>14436.83</v>
+        <v>953.89</v>
       </c>
       <c r="D24">
-        <v>12594.99</v>
+        <v>927.88</v>
       </c>
       <c r="E24">
-        <v>11632.55</v>
+        <v>715.37</v>
       </c>
       <c r="F24">
-        <v>18234.900000000001</v>
+        <v>733.02</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2670,78 +2913,87 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>14090.585999999999</v>
+        <v>859.09399999999982</v>
       </c>
       <c r="K24">
-        <v>0.54600000000000004</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1464.4797866450431</v>
+        <v>-90.319757581389013</v>
       </c>
       <c r="N24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O24">
-        <v>14090.585999999999</v>
+        <v>859.09399999999982</v>
       </c>
       <c r="P24">
-        <v>8378.254880301216</v>
+        <v>510.81683175827402</v>
       </c>
       <c r="Q24">
-        <v>14090.585999999999</v>
+        <v>859.09399999999982</v>
       </c>
       <c r="R24">
-        <v>13054.5075</v>
+        <v>890.61249999999995</v>
       </c>
       <c r="S24">
-        <v>14090.585999999999</v>
+        <v>859.09399999999982</v>
       </c>
       <c r="T24">
-        <v>5180.3925000000017</v>
+        <v>-157.5925</v>
       </c>
       <c r="U24">
-        <v>0.39682787726767949</v>
+        <v>-0.17694844839927579</v>
       </c>
       <c r="V24">
-        <v>-5.9425504568213668E-2</v>
+        <v>2.6498266455197751E-2</v>
       </c>
       <c r="W24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z24" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AC24">
+        <v>-70.309999999999988</v>
+      </c>
+      <c r="AD24">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>5486.17</v>
+        <v>2023.53</v>
       </c>
       <c r="C25">
-        <v>4993.34</v>
+        <v>1404.47</v>
       </c>
       <c r="D25">
-        <v>5359.6</v>
+        <v>1542.65</v>
       </c>
       <c r="E25">
-        <v>5267.36</v>
+        <v>2452.27</v>
       </c>
       <c r="F25">
-        <v>8350.92</v>
+        <v>1660.64</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2753,78 +3005,87 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5891.4780000000001</v>
+        <v>1816.712</v>
       </c>
       <c r="K25">
-        <v>0.73909999999999998</v>
+        <v>2.41E-2</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>759.03357867714476</v>
+        <v>-62.335264249584952</v>
       </c>
       <c r="N25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O25">
-        <v>5891.4780000000001</v>
+        <v>1816.712</v>
       </c>
       <c r="P25">
-        <v>3503.069659820198</v>
+        <v>1080.215981088493</v>
       </c>
       <c r="Q25">
-        <v>5891.4780000000001</v>
+        <v>1816.712</v>
       </c>
       <c r="R25">
-        <v>5276.6175000000003</v>
+        <v>1855.73</v>
       </c>
       <c r="S25">
-        <v>5891.4780000000001</v>
+        <v>1816.712</v>
       </c>
       <c r="T25">
-        <v>3074.3024999999998</v>
+        <v>-195.08999999999989</v>
       </c>
       <c r="U25">
-        <v>0.58262750711037892</v>
+        <v>-0.1051284400209082</v>
       </c>
       <c r="V25">
-        <v>-8.7249247264954449E-2</v>
+        <v>1.574312428785728E-2</v>
       </c>
       <c r="W25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y25" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AC25">
+        <v>32.202000000000012</v>
+      </c>
+      <c r="AD25">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26">
-        <v>9553.36</v>
+        <v>816.03</v>
       </c>
       <c r="C26">
-        <v>8677.93</v>
+        <v>2340.64</v>
       </c>
       <c r="D26">
-        <v>9227.75</v>
+        <v>1562.31</v>
       </c>
       <c r="E26">
-        <v>9130.9500000000007</v>
+        <v>926.62</v>
       </c>
       <c r="F26">
-        <v>11925.55</v>
+        <v>723.72</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2833,81 +3094,90 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="J26">
-        <v>9703.108000000002</v>
+        <v>1313.339602613207</v>
       </c>
       <c r="K26">
-        <v>0.81610000000000005</v>
+        <v>0.41889999999999999</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>571.64495521446406</v>
+        <v>78.340008064068002</v>
       </c>
       <c r="N26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O26">
-        <v>9703.108000000002</v>
+        <v>644.35125361320661</v>
       </c>
       <c r="P26">
-        <v>5769.4628140440564</v>
+        <v>383.1309099006283</v>
       </c>
       <c r="Q26">
-        <v>9703.108000000002</v>
+        <v>644.35125361320661</v>
       </c>
       <c r="R26">
-        <v>9147.4975000000013</v>
+        <v>1411.4</v>
       </c>
       <c r="S26">
-        <v>9703.108000000002</v>
+        <v>1273.864</v>
       </c>
       <c r="T26">
-        <v>2778.052499999998</v>
+        <v>-687.67999999999984</v>
       </c>
       <c r="U26">
-        <v>0.30369535493177208</v>
+        <v>-0.48723253507156011</v>
       </c>
       <c r="V26">
-        <v>-4.547878497374204E-2</v>
+        <v>7.2963722806062906E-2</v>
       </c>
       <c r="W26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z26" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AC26">
+        <v>-159.86399999999989</v>
+      </c>
+      <c r="AD26">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27">
-        <v>6402.34</v>
+        <v>831.55</v>
       </c>
       <c r="C27">
-        <v>6170.68</v>
+        <v>1633.48</v>
       </c>
       <c r="D27">
-        <v>5700.57</v>
+        <v>232.4</v>
       </c>
       <c r="E27">
-        <v>5353.1900000000014</v>
+        <v>1101.4000000000001</v>
       </c>
       <c r="F27">
-        <v>7959.6900000000014</v>
+        <v>227</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2916,81 +3186,90 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="J27">
-        <v>6317.2940000000008</v>
+        <v>847.04418071254258</v>
       </c>
       <c r="K27">
-        <v>0.7127</v>
+        <v>0.60840000000000005</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>432.96948018167768</v>
+        <v>88.569024225948738</v>
       </c>
       <c r="N27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O27">
-        <v>6317.2940000000008</v>
+        <v>137.0136017125426</v>
       </c>
       <c r="P27">
-        <v>3756.259625099879</v>
+        <v>81.468214112298597</v>
       </c>
       <c r="Q27">
-        <v>6317.2940000000008</v>
+        <v>137.0136017125426</v>
       </c>
       <c r="R27">
-        <v>5906.6950000000006</v>
+        <v>949.70749999999998</v>
       </c>
       <c r="S27">
-        <v>6317.2940000000008</v>
+        <v>805.16599999999994</v>
       </c>
       <c r="T27">
-        <v>2052.9950000000008</v>
+        <v>-722.70749999999998</v>
       </c>
       <c r="U27">
-        <v>0.34757084968836222</v>
+        <v>-0.76097903828283975</v>
       </c>
       <c r="V27">
-        <v>-5.2049198907467807E-2</v>
+        <v>0.11395762723919629</v>
       </c>
       <c r="W27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z27" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AC27">
+        <v>-174.11799999999999</v>
+      </c>
+      <c r="AD27">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>11640.78</v>
+        <v>9410.35</v>
       </c>
       <c r="C28">
-        <v>9295.3700000000008</v>
+        <v>7436.21</v>
       </c>
       <c r="D28">
-        <v>9544.57</v>
+        <v>8762.01</v>
       </c>
       <c r="E28">
-        <v>9296.2800000000007</v>
+        <v>8089.91</v>
       </c>
       <c r="F28">
-        <v>11750.2</v>
+        <v>7684.49</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -3002,247 +3281,271 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>10305.44</v>
+        <v>8276.5939999999991</v>
       </c>
       <c r="K28">
-        <v>0.81489999999999996</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-194.96759166532499</v>
+        <v>-830.21600334558207</v>
       </c>
       <c r="N28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28">
-        <v>10305.44</v>
+        <v>8276.5939999999991</v>
       </c>
       <c r="P28">
-        <v>6127.6090982767764</v>
+        <v>4921.2583545334282</v>
       </c>
       <c r="Q28">
-        <v>10305.44</v>
+        <v>8276.5939999999991</v>
       </c>
       <c r="R28">
-        <v>9944.25</v>
+        <v>8424.619999999999</v>
       </c>
       <c r="S28">
-        <v>10305.44</v>
+        <v>8276.5939999999991</v>
       </c>
       <c r="T28">
-        <v>1805.950000000001</v>
+        <v>-740.1299999999992</v>
       </c>
       <c r="U28">
-        <v>0.18160746159841121</v>
+        <v>-8.785322067938961E-2</v>
       </c>
       <c r="V28">
-        <v>-2.7195959903689611E-2</v>
+        <v>1.3156137121116931E-2</v>
       </c>
       <c r="W28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y28" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC28">
+        <v>-279.80200000000008</v>
+      </c>
+      <c r="AD28">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>2601.5</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="K29">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>-965.13148093886116</v>
+      </c>
+      <c r="N29" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="P29">
+        <v>356.93805812226827</v>
+      </c>
+      <c r="Q29">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="R29">
+        <v>750.375</v>
+      </c>
+      <c r="S29">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="T29">
+        <v>-750.375</v>
+      </c>
+      <c r="U29">
+        <v>-1</v>
+      </c>
+      <c r="V29">
+        <v>0.14975133545904659</v>
+      </c>
+      <c r="W29" t="s">
         <v>98</v>
       </c>
-      <c r="AC28">
-        <v>27</v>
+      <c r="Y29" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC29">
+        <v>-540.30000000000007</v>
+      </c>
+      <c r="AD29">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF29">
+        <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29">
-        <v>1947.58</v>
-      </c>
-      <c r="C29">
-        <v>2052</v>
-      </c>
-      <c r="D29">
-        <v>1791.44</v>
-      </c>
-      <c r="E29">
-        <v>1925</v>
-      </c>
-      <c r="F29">
-        <v>2481.9</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>2039.5840000000001</v>
-      </c>
-      <c r="K29">
-        <v>0.4194</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>198.40655490348809</v>
-      </c>
-      <c r="N29" t="s">
-        <v>89</v>
-      </c>
-      <c r="O29">
-        <v>2039.5840000000001</v>
-      </c>
-      <c r="P29">
-        <v>1212.735552785688</v>
-      </c>
-      <c r="Q29">
-        <v>2039.5840000000001</v>
-      </c>
-      <c r="R29">
-        <v>1929.0050000000001</v>
-      </c>
-      <c r="S29">
-        <v>2039.5840000000001</v>
-      </c>
-      <c r="T29">
-        <v>552.89499999999998</v>
-      </c>
-      <c r="U29">
-        <v>0.2866218594560408</v>
-      </c>
-      <c r="V29">
-        <v>-4.2922006225297293E-2</v>
-      </c>
-      <c r="W29" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA29" t="s">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>2601.5</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="K30">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>-965.13148093886116</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="P30">
+        <v>356.93805812226827</v>
+      </c>
+      <c r="Q30">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="R30">
+        <v>750.375</v>
+      </c>
+      <c r="S30">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="T30">
+        <v>-750.375</v>
+      </c>
+      <c r="U30">
+        <v>-1</v>
+      </c>
+      <c r="V30">
+        <v>0.14975133545904659</v>
+      </c>
+      <c r="W30" t="s">
         <v>98</v>
       </c>
-      <c r="AC29">
-        <v>28</v>
+      <c r="Y30" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC30">
+        <v>-540.30000000000007</v>
+      </c>
+      <c r="AD30">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF30">
+        <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30">
-        <v>1940.14</v>
-      </c>
-      <c r="C30">
-        <v>1549.23</v>
-      </c>
-      <c r="D30">
-        <v>1590.76</v>
-      </c>
-      <c r="E30">
-        <v>1549.39</v>
-      </c>
-      <c r="F30">
-        <v>1958.36</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1717.576</v>
-      </c>
-      <c r="K30">
-        <v>0.81489999999999996</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>-32.498542531567857</v>
-      </c>
-      <c r="N30" t="s">
-        <v>89</v>
-      </c>
-      <c r="O30">
-        <v>1717.576</v>
-      </c>
-      <c r="P30">
-        <v>1021.2697686447</v>
-      </c>
-      <c r="Q30">
-        <v>1717.576</v>
-      </c>
-      <c r="R30">
-        <v>1657.38</v>
-      </c>
-      <c r="S30">
-        <v>1717.576</v>
-      </c>
-      <c r="T30">
-        <v>300.97999999999979</v>
-      </c>
-      <c r="U30">
-        <v>0.18159987450071791</v>
-      </c>
-      <c r="V30">
-        <v>-2.7194823725677771E-2</v>
-      </c>
-      <c r="W30" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>5064.29</v>
+        <v>582.52</v>
       </c>
       <c r="C31">
-        <v>4463.17</v>
+        <v>2337.48</v>
       </c>
       <c r="D31">
-        <v>4952.3900000000003</v>
+        <v>1827.51</v>
       </c>
       <c r="E31">
-        <v>4656.1000000000004</v>
+        <v>1604.23</v>
       </c>
       <c r="F31">
-        <v>5062.8599999999997</v>
+        <v>823.39</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -3251,81 +3554,90 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="J31">
-        <v>4839.7619999999997</v>
+        <v>1487.188210555727</v>
       </c>
       <c r="K31">
-        <v>0.78739999999999999</v>
+        <v>0.64639999999999997</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-116.75196925916229</v>
+        <v>218.82922381846811</v>
       </c>
       <c r="N31" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O31">
-        <v>4839.7619999999997</v>
+        <v>604.7802655557274</v>
       </c>
       <c r="P31">
-        <v>2877.719890144836</v>
+        <v>359.60202161940879</v>
       </c>
       <c r="Q31">
-        <v>4839.7619999999997</v>
+        <v>604.7802655557274</v>
       </c>
       <c r="R31">
-        <v>4783.9874999999993</v>
+        <v>1587.9349999999999</v>
       </c>
       <c r="S31">
-        <v>4839.7619999999997</v>
+        <v>1435.0260000000001</v>
       </c>
       <c r="T31">
-        <v>278.8725000000004</v>
+        <v>-764.54499999999996</v>
       </c>
       <c r="U31">
-        <v>5.8292898967649977E-2</v>
+        <v>-0.48147121891009392</v>
       </c>
       <c r="V31">
-        <v>-8.7294394681848679E-3</v>
+        <v>7.2100958016881558E-2</v>
       </c>
       <c r="W31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y31" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z31" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AC31">
+        <v>-25.150999999999978</v>
+      </c>
+      <c r="AD31">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>5296.69</v>
+        <v>7572.32</v>
       </c>
       <c r="C32">
-        <v>3396.66</v>
+        <v>5602.3499999999995</v>
       </c>
       <c r="D32">
-        <v>5704.31</v>
+        <v>6934.7599999999993</v>
       </c>
       <c r="E32">
-        <v>4265.41</v>
+        <v>6264.1399999999994</v>
       </c>
       <c r="F32">
-        <v>4928.1400000000003</v>
+        <v>5781.8499999999995</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -3337,78 +3649,87 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>4718.2420000000002</v>
+        <v>6431.0839999999989</v>
       </c>
       <c r="K32">
-        <v>0.37990000000000002</v>
+        <v>2.92E-2</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-588.87811311464247</v>
+        <v>-849.06255213638269</v>
       </c>
       <c r="N32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O32">
-        <v>4718.2420000000002</v>
+        <v>6431.0839999999989</v>
       </c>
       <c r="P32">
-        <v>2805.464163303227</v>
+        <v>3823.9190980862718</v>
       </c>
       <c r="Q32">
-        <v>4718.2420000000002</v>
+        <v>6431.0839999999989</v>
       </c>
       <c r="R32">
-        <v>4665.7674999999999</v>
+        <v>6593.392499999999</v>
       </c>
       <c r="S32">
-        <v>4718.2420000000002</v>
+        <v>6431.0839999999989</v>
       </c>
       <c r="T32">
-        <v>262.3725000000004</v>
+        <v>-811.54249999999956</v>
       </c>
       <c r="U32">
-        <v>5.623351356448867E-2</v>
+        <v>-0.1230842089258299</v>
       </c>
       <c r="V32">
-        <v>-8.4210437538365934E-3</v>
+        <v>1.8432024660563331E-2</v>
       </c>
       <c r="W32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z32" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AC32">
+        <v>-291.91500000000008</v>
+      </c>
+      <c r="AD32">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>512.46</v>
+        <v>14612.64</v>
       </c>
       <c r="C33">
-        <v>512.46</v>
+        <v>20127</v>
       </c>
       <c r="D33">
-        <v>732.48</v>
+        <v>14612.64</v>
       </c>
       <c r="E33">
-        <v>568.79999999999995</v>
+        <v>14832.02</v>
       </c>
       <c r="F33">
-        <v>732.45</v>
+        <v>14832.02</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -3417,81 +3738,90 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J33">
-        <v>611.7299999999999</v>
+        <v>15922.69268694548</v>
       </c>
       <c r="K33">
-        <v>0.32490000000000002</v>
+        <v>0.30359999999999998</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>29.182594079365121</v>
+        <v>930.15876222691986</v>
       </c>
       <c r="N33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O33">
-        <v>611.7299999999999</v>
+        <v>13903.41497094548</v>
       </c>
       <c r="P33">
-        <v>363.7343299935618</v>
+        <v>8266.9630867855285</v>
       </c>
       <c r="Q33">
-        <v>611.7299999999999</v>
+        <v>13903.41497094548</v>
       </c>
       <c r="R33">
-        <v>581.54999999999995</v>
+        <v>16046.075000000001</v>
       </c>
       <c r="S33">
-        <v>611.7299999999999</v>
+        <v>15803.263999999999</v>
       </c>
       <c r="T33">
-        <v>150.90000000000009</v>
+        <v>-1214.0550000000001</v>
       </c>
       <c r="U33">
-        <v>0.25947897859169478</v>
+        <v>-7.5660558734768485E-2</v>
       </c>
       <c r="V33">
-        <v>-3.8857323567655672E-2</v>
+        <v>1.1330269712109219E-2</v>
       </c>
       <c r="W33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y33" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AC33">
+        <v>-485.62199999999967</v>
+      </c>
+      <c r="AD33">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>529.64</v>
+        <v>8362.8700000000008</v>
       </c>
       <c r="C34">
-        <v>550.63</v>
+        <v>450.68</v>
       </c>
       <c r="D34">
-        <v>682.63</v>
+        <v>4200.68</v>
       </c>
       <c r="E34">
-        <v>516.33000000000004</v>
+        <v>2468.12</v>
       </c>
       <c r="F34">
-        <v>1643.02</v>
+        <v>2420.56</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -3503,78 +3833,87 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>784.45</v>
+        <v>3580.5820000000008</v>
       </c>
       <c r="K34">
-        <v>0.65910000000000002</v>
+        <v>0.15160000000000001</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>297.56188249817387</v>
+        <v>-2817.5833189184409</v>
       </c>
       <c r="N34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O34">
-        <v>784.45</v>
+        <v>3580.5820000000008</v>
       </c>
       <c r="P34">
-        <v>466.43354938199798</v>
+        <v>2129.0121373105908</v>
       </c>
       <c r="Q34">
-        <v>784.45</v>
+        <v>3580.5820000000008</v>
       </c>
       <c r="R34">
-        <v>569.8075</v>
+        <v>3870.587500000001</v>
       </c>
       <c r="S34">
-        <v>784.45</v>
+        <v>3580.5820000000008</v>
       </c>
       <c r="T34">
-        <v>1073.2125000000001</v>
+        <v>-1450.0275000000011</v>
       </c>
       <c r="U34">
-        <v>1.883465029856574</v>
+        <v>-0.37462723682128368</v>
       </c>
       <c r="V34">
-        <v>-0.28205140351143521</v>
+        <v>5.610092901331977E-2</v>
       </c>
       <c r="W34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y34" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z34" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC34">
+        <v>-986.71800000000042</v>
+      </c>
+      <c r="AD34">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <v>3176.92</v>
+        <v>36184.050000000003</v>
       </c>
       <c r="C35">
-        <v>3170.52</v>
+        <v>35497.089999999997</v>
       </c>
       <c r="D35">
-        <v>3176.92</v>
+        <v>34366.9</v>
       </c>
       <c r="E35">
-        <v>3484.52</v>
+        <v>30653.21</v>
       </c>
       <c r="F35">
-        <v>3820.82</v>
+        <v>32545.88</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -3586,161 +3925,179 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3365.94</v>
+        <v>33849.425999999999</v>
       </c>
       <c r="K35">
-        <v>0.32529999999999998</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>221.01342847521479</v>
+        <v>-1441.870677417453</v>
       </c>
       <c r="N35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O35">
-        <v>3365.94</v>
+        <v>33849.425999999999</v>
       </c>
       <c r="P35">
-        <v>2001.3861192005129</v>
+        <v>20126.85054971417</v>
       </c>
       <c r="Q35">
-        <v>3365.94</v>
+        <v>33849.425999999999</v>
       </c>
       <c r="R35">
-        <v>3252.22</v>
+        <v>34175.3125</v>
       </c>
       <c r="S35">
-        <v>3365.94</v>
+        <v>33849.425999999999</v>
       </c>
       <c r="T35">
-        <v>568.59999999999991</v>
+        <v>-1629.432499999999</v>
       </c>
       <c r="U35">
-        <v>0.1748344207956411</v>
+        <v>-4.7678642294785127E-2</v>
       </c>
       <c r="V35">
-        <v>-2.6181687998356171E-2</v>
+        <v>7.1399403565182576E-3</v>
       </c>
       <c r="W35" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y35" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA35" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC35">
+        <v>-1212.0219999999999</v>
+      </c>
+      <c r="AD35">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B36">
-        <v>1845.07</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>253.92</v>
+        <v>1446.88</v>
       </c>
       <c r="D36">
-        <v>1883.84</v>
+        <v>2580.5700000000002</v>
       </c>
       <c r="E36">
-        <v>1945.16</v>
+        <v>7883.53</v>
       </c>
       <c r="F36">
-        <v>1977.21</v>
+        <v>846.43</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="J36">
-        <v>1581.04</v>
+        <v>2712.8241718372878</v>
       </c>
       <c r="K36">
-        <v>0.31640000000000001</v>
+        <v>0.33210000000000001</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-200.4648604730196</v>
+        <v>863.64785797600473</v>
       </c>
       <c r="N36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O36">
-        <v>1581.04</v>
+        <v>-16.48412316271197</v>
       </c>
       <c r="P36">
-        <v>940.08553625459115</v>
+        <v>-9.8014507938475983</v>
       </c>
       <c r="Q36">
-        <v>1581.04</v>
+        <v>-16.48412316271197</v>
       </c>
       <c r="R36">
-        <v>1481.9974999999999</v>
+        <v>2977.7449999999999</v>
       </c>
       <c r="S36">
-        <v>1581.04</v>
+        <v>2551.482</v>
       </c>
       <c r="T36">
-        <v>495.21250000000009</v>
+        <v>-2131.3150000000001</v>
       </c>
       <c r="U36">
-        <v>0.33415204816472371</v>
+        <v>-0.71574799050959703</v>
       </c>
       <c r="V36">
-        <v>-5.0039715459043059E-2</v>
+        <v>0.1071842174309412</v>
       </c>
       <c r="W36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y36" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z36" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA36" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC36">
+        <v>812.95100000000014</v>
+      </c>
+      <c r="AD36">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B37">
-        <v>1845.07</v>
+        <v>28381.119999999999</v>
       </c>
       <c r="C37">
-        <v>253.92</v>
+        <v>4645.82</v>
       </c>
       <c r="D37">
-        <v>1883.84</v>
+        <v>7182.37</v>
       </c>
       <c r="E37">
-        <v>1945.16</v>
+        <v>5083.28</v>
       </c>
       <c r="F37">
-        <v>1977.21</v>
+        <v>5458.57</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3752,81 +4109,87 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1581.04</v>
+        <v>10150.232</v>
       </c>
       <c r="K37">
-        <v>0.31640000000000001</v>
+        <v>8.43E-2</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-200.4648604730196</v>
+        <v>-8931.7748296067566</v>
       </c>
       <c r="N37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O37">
-        <v>1581.04</v>
+        <v>10150.232</v>
       </c>
       <c r="P37">
-        <v>940.08553625459115</v>
+        <v>6035.3225046984971</v>
       </c>
       <c r="Q37">
-        <v>1581.04</v>
+        <v>10150.232</v>
       </c>
       <c r="R37">
-        <v>1481.9974999999999</v>
+        <v>11323.147499999999</v>
       </c>
       <c r="S37">
-        <v>1581.04</v>
+        <v>10150.232</v>
       </c>
       <c r="T37">
-        <v>495.21250000000009</v>
+        <v>-5864.5775000000012</v>
       </c>
       <c r="U37">
-        <v>0.33415204816472371</v>
+        <v>-0.51792820856568378</v>
       </c>
       <c r="V37">
-        <v>-5.0039715459043059E-2</v>
+        <v>7.7560440904622802E-2</v>
       </c>
       <c r="W37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y37" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z37" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA37" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AC37">
+        <v>-4540.764000000001</v>
+      </c>
+      <c r="AD37">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>1816.76</v>
+        <v>28963.64</v>
       </c>
       <c r="C38">
-        <v>1157.78</v>
+        <v>8430.18</v>
       </c>
       <c r="D38">
-        <v>1166.5999999999999</v>
+        <v>11590.45</v>
       </c>
       <c r="E38">
-        <v>1399.59</v>
+        <v>14571.04</v>
       </c>
       <c r="F38">
-        <v>1409.51</v>
+        <v>7128.39</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -3838,63 +4201,72 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1390.048</v>
+        <v>14136.74</v>
       </c>
       <c r="K38">
-        <v>0.1835</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-144.02117890248431</v>
+        <v>-7849.2977478122884</v>
       </c>
       <c r="N38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O38">
-        <v>1390.048</v>
+        <v>14136.74</v>
       </c>
       <c r="P38">
-        <v>826.52179546350624</v>
+        <v>8405.6980239536824</v>
       </c>
       <c r="Q38">
-        <v>1390.048</v>
+        <v>14136.74</v>
       </c>
       <c r="R38">
-        <v>1385.1824999999999</v>
+        <v>15888.827499999999</v>
       </c>
       <c r="S38">
-        <v>1390.048</v>
+        <v>14136.74</v>
       </c>
       <c r="T38">
-        <v>24.3275000000001</v>
+        <v>-8760.4375</v>
       </c>
       <c r="U38">
-        <v>1.7562667735118009E-2</v>
+        <v>-0.55135833654182476</v>
       </c>
       <c r="V38">
-        <v>-2.6300329475574319E-3</v>
+        <v>8.2566647213616742E-2</v>
       </c>
       <c r="W38" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y38" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z38" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AA38" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC38">
+        <v>-3752.9640000000009</v>
+      </c>
+      <c r="AD38">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B39">
         <v>18</v>
@@ -3933,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O39">
         <v>135</v>
@@ -3960,24 +4332,33 @@
         <v>-21.713943641561769</v>
       </c>
       <c r="W39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y39" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z39" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA39" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC39">
+        <v>127.8</v>
+      </c>
+      <c r="AD39">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4016,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O40">
         <v>330</v>
@@ -4043,24 +4424,33 @@
         <v>-0.44925400637714002</v>
       </c>
       <c r="W40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y40" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z40" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA40" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC40">
+        <v>247.5</v>
+      </c>
+      <c r="AD40">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B41">
         <v>147.24</v>
@@ -4099,7 +4489,7 @@
         <v>52.739204918763789</v>
       </c>
       <c r="N41" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O41">
         <v>194.286</v>
@@ -4126,24 +4516,33 @@
         <v>-0.11127932563109839</v>
       </c>
       <c r="W41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y41" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z41" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA41" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC41">
+        <v>38.204000000000001</v>
+      </c>
+      <c r="AD41">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4182,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O42">
         <v>42.886000000000003</v>
@@ -4209,24 +4608,33 @@
         <v>-0.98698272067684101</v>
       </c>
       <c r="W42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y42" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z42" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA42" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC42">
+        <v>28.086000000000009</v>
+      </c>
+      <c r="AD42">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43">
         <v>73.680000000000007</v>
@@ -4265,7 +4673,7 @@
         <v>14.294600626676869</v>
       </c>
       <c r="N43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O43">
         <v>76.445999999999998</v>
@@ -4292,24 +4700,33 @@
         <v>-0.19813253614581561</v>
       </c>
       <c r="W43" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y43" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z43" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA43" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC43">
+        <v>3.9380000000000002</v>
+      </c>
+      <c r="AD43">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>189.03</v>
@@ -4348,7 +4765,7 @@
         <v>18.846548790800629</v>
       </c>
       <c r="N44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O44">
         <v>196.51</v>
@@ -4375,24 +4792,33 @@
         <v>-5.8685529041825023E-2</v>
       </c>
       <c r="W44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y44" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z44" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA44" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC44">
+        <v>12.113</v>
+      </c>
+      <c r="AD44">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B45">
         <v>-347.91</v>
@@ -4431,7 +4857,7 @@
         <v>3.3693444577991158</v>
       </c>
       <c r="N45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O45">
         <v>-359.03</v>
@@ -4458,24 +4884,33 @@
         <v>1.7903391495443701E-2</v>
       </c>
       <c r="W45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y45" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z45" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA45" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC45">
+        <v>5.5620000000000003</v>
+      </c>
+      <c r="AD45">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>159.52000000000001</v>
@@ -4514,7 +4949,7 @@
         <v>30.35144870339667</v>
       </c>
       <c r="N46" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O46">
         <v>179.84399999999999</v>
@@ -4541,24 +4976,33 @@
         <v>-2.588246828237728E-2</v>
       </c>
       <c r="W46" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y46" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z46" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA46" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC46">
+        <v>9.4359999999999999</v>
+      </c>
+      <c r="AD46">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B47">
         <v>147.1</v>
@@ -4597,7 +5041,7 @@
         <v>0.99548575428082131</v>
       </c>
       <c r="N47" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O47">
         <v>148.08799999999999</v>
@@ -4624,24 +5068,33 @@
         <v>-1.878005983975406E-3</v>
       </c>
       <c r="W47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y47" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z47" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA47" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC47">
+        <v>0.74099999999999988</v>
+      </c>
+      <c r="AD47">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B48">
         <v>47.25</v>
@@ -4680,7 +5133,7 @@
         <v>-0.28264790936145801</v>
       </c>
       <c r="N48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O48">
         <v>46.05</v>
@@ -4707,273 +5160,309 @@
         <v>-4.909879851116284E-3</v>
       </c>
       <c r="W48" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC48">
+        <v>-0.15</v>
+      </c>
+      <c r="AD48">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>94</v>
       </c>
-      <c r="Y48" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC48">
-        <v>47</v>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF49">
+        <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
-        <v>91</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC49">
-        <v>48</v>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>94</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF50">
+        <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>91</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC50">
-        <v>49</v>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>94</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF51">
+        <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>91</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B52">
         <v>73.680000000000007</v>
@@ -5012,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O52">
         <v>33.56</v>
@@ -5039,24 +5528,33 @@
         <v>0.14975133545904659</v>
       </c>
       <c r="W52" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y52" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z52" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA52" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC52">
+        <v>-24.148</v>
+      </c>
+      <c r="AD52">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <v>347.91</v>
@@ -5095,7 +5593,7 @@
         <v>-3.3693444577991158</v>
       </c>
       <c r="N53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O53">
         <v>328.19426969895989</v>
@@ -5122,24 +5620,33 @@
         <v>1.7903391495443701E-2</v>
       </c>
       <c r="W53" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y53" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z53" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA53" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC53">
+        <v>-5.5620000000000003</v>
+      </c>
+      <c r="AD53">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B54">
         <v>2139.79</v>
@@ -5178,7 +5685,7 @@
         <v>-411.16001517493987</v>
       </c>
       <c r="N54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O54">
         <v>245.82</v>
@@ -5205,24 +5712,33 @@
         <v>9.1736173756090708E-2</v>
       </c>
       <c r="W54" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y54" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z54" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA54" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC54">
+        <v>-438.02199999999999</v>
+      </c>
+      <c r="AD54">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5261,7 +5777,7 @@
         <v>-91.983527787591527</v>
       </c>
       <c r="N55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O55">
         <v>193.31</v>
@@ -5288,24 +5804,33 @@
         <v>0.1205014408438566</v>
       </c>
       <c r="W55" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y55" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z55" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA55" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC55">
+        <v>31.600000000000009</v>
+      </c>
+      <c r="AD55">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5344,7 +5869,7 @@
         <v>99.264371334454779</v>
       </c>
       <c r="N56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O56">
         <v>-97.685124848652777</v>
@@ -5371,24 +5896,33 @@
         <v>0.14975133545904659</v>
       </c>
       <c r="W56" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y56" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z56" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA56" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC56">
+        <v>4.3740000000000219</v>
+      </c>
+      <c r="AD56">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5427,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O57">
         <v>448.2</v>
@@ -5454,24 +5988,33 @@
         <v>7.4875667729523324E-2</v>
       </c>
       <c r="W57" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y57" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z57" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA57" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC57">
+        <v>49.800000000000033</v>
+      </c>
+      <c r="AD57">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5510,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O58">
         <v>200.77</v>
@@ -5537,24 +6080,33 @@
         <v>0.14975133545904659</v>
       </c>
       <c r="W58" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC58">
+        <v>80.184999999999988</v>
+      </c>
+      <c r="AD58">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5593,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -5620,24 +6172,33 @@
         <v>0.14975133545904659</v>
       </c>
       <c r="W59" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y59" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z59" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA59" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5676,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -5703,24 +6264,33 @@
         <v>0.14975133545904659</v>
       </c>
       <c r="W60" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y60" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z60" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA60" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5759,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5786,18 +6356,27 @@
         <v>0.14975133545904659</v>
       </c>
       <c r="W61" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y61" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Z61" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AA61" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>-5478.891999999998</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF61">
         <v>60</v>
       </c>
     </row>
